--- a/data/hotels_by_city/Dallas/Dallas_shard_109.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_109.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Tony W</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Togaset</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r569381961-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>jeaniebohall</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r552728002-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -224,6 +233,9 @@
 The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and...I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and tile was coming away from the wall (I could have easily took it all off).  There was not any sheets for the very uncomfortable hideaway bed in the couch, so I went to the front desk.  No one was there, so I waited for someone to show up.  After standing there for a few minutes, I noticed I could hear a TV in the background playing.  I cleared my throat to try to see if anyone was there, and a woman appeared from around the corner.  I assume she was watching a show on the computer and wasn't paying attention.  I asked for sheets and extra pillows and they did not have any extra pillows.  I took the sheets to the room and there were paint like stains on the sheets.My husband went to check out the pool and he came back and said that the pool was not swimmable.  There was a terrible smell when you went into the pool area and there was no way to see at the bottom of the pool.  This was the main reason for staying here (the pool online looked bigger than La Quinta - which we should have stayed there!!).The next morning I went to complain to a manager.  There was an assistant manager there and looked at me ion disbelief when I was explaining what I had encountered.  He quickly said, "I will fix this.." and went behind the desk.  He received a call and ended up being very...More</t>
   </si>
   <si>
+    <t>Hicks B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r551194259-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -242,6 +254,9 @@
     <t>Service and stay were both comfortable. A few things that didn't impact our comfort but did make me wonder about other shortcuts they may be taking in other areas such as housekeeping possibly. Hotel could use a little better maintenance. It seems to be a older bldg maybe and they have done the updating. There were a few things in our room where maintenance shortcuts were used instead of fixing the issues.Our window had a complete crack from top to bottom and instead of changing the window they just smeared clear silicone all the way down the break right in the middle of the window. They also changed the doorknob in the bathroom but it was smaller than the previous knob and they just left it looking very bad and incomplete and the caulking in the tub was very poorly completed. These things didn't ruin our stay or change the good service we received just made me check my bed and other things a little closer.More</t>
   </si>
   <si>
+    <t>TJH0413</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r536437672-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -260,6 +275,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Antonette C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r457410175-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -278,6 +296,9 @@
     <t>February 2017</t>
   </si>
   <si>
+    <t>WisconsinTarheel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r448305948-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -296,6 +317,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>altdent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r439024480-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -314,6 +338,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>Debbi B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r432972642-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -329,6 +356,9 @@
     <t xml:space="preserve">Very nice thank you for the clean comfort by the by nice soap!! A nice spacious seating area. Wonderful comfortable bed. Breakfast was good. Nice indoor pool too. We will stay again close to the top golf and other things to do. </t>
   </si>
   <si>
+    <t>Joie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r417614037-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -344,6 +374,9 @@
     <t>Stayed here one night while in town for a Jiu-jitsu tournament and it was a great experience!! Clean room friendly staff and breakfast was good. Nice pool and hot tub!! Very quiet. Would definitely recommend this place!!</t>
   </si>
   <si>
+    <t>DavitaJo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r400999934-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -362,6 +395,9 @@
     <t>We checked in to the Comfort Suites in The Colony because the AC was out in our home.  The front desk staff was helpful.  The room had a musty/moldy smell and...even better...the AC in our room didn't work.  (If I wanted to be hot we could have stayed at home for free.)  They had no other room to move us to so the (very very helpful) maintenance man installed a new unit while we went swimming with our 2 year old daughter.  The pool area smelled horribly and the water was cloudy and had a horrible smell.  I don't expect four star accomodations for $100 a night but at the very least I expect a clean, air conditioned room with a lack of offensive smell.  Pros: Lots of clean towels and the beds were actually pretty comfortable.  We didn't eat the breakfast so I can't comment on that. More</t>
   </si>
   <si>
+    <t>bryandenton</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r385227326-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -383,6 +419,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>andyspist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r385069688-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -401,6 +440,9 @@
     <t>I come to Dallas/FTW area for business once or twice a year. Usually my company puts us up in another hotel chain, but recently our headquarters moved and due to a soccer tournament, the only property available this week was this one. I was disappointed the minute i walked into my room. For the purpose of being unbiased i will stick to the facts for this review. The room itself has a strange smell: not smoking or pet, but some kind of weird almost mold-like odor. The room was missing the remote for the TV; if that were all, no big deal. The toilet shakes every time i flush it, enough to bring down the raised toilet seat everytime. The room has a hole in the wall under the sick like someone kicked it, although it's so far under it's hard to imagine how that's possible. The room looks like they recently tried updating it on the cheap: new paint, some new bathroom fixtures, old furniture, air conditioner that makes a lovely humming sound all the time, Dynex TV model; rug could be new, but pattern is old looking. Closet has broken hanger, which i found out when i tried handing my pants. Shower was interesting to use as the only way to get the water to come out of the top is to pull the end of the spigot on the bottom (embarrassingly it took me 10 min to...I come to Dallas/FTW area for business once or twice a year. Usually my company puts us up in another hotel chain, but recently our headquarters moved and due to a soccer tournament, the only property available this week was this one. I was disappointed the minute i walked into my room. For the purpose of being unbiased i will stick to the facts for this review. The room itself has a strange smell: not smoking or pet, but some kind of weird almost mold-like odor. The room was missing the remote for the TV; if that were all, no big deal. The toilet shakes every time i flush it, enough to bring down the raised toilet seat everytime. The room has a hole in the wall under the sick like someone kicked it, although it's so far under it's hard to imagine how that's possible. The room looks like they recently tried updating it on the cheap: new paint, some new bathroom fixtures, old furniture, air conditioner that makes a lovely humming sound all the time, Dynex TV model; rug could be new, but pattern is old looking. Closet has broken hanger, which i found out when i tried handing my pants. Shower was interesting to use as the only way to get the water to come out of the top is to pull the end of the spigot on the bottom (embarrassingly it took me 10 min to figure this out and the night manager couldn't explain it very well over the phone). On the 3rd day of my stay, after a nice 45 min jog i came in to take a shower to find that the shower wasn't working. A call to the front desk informed me that there was a water break and they had shutoff the shower... even though my sink still had water. Sigh. That's it for now, but i have two days left here, so who knows what else will happen. Pray for me.More</t>
   </si>
   <si>
+    <t>NCL San Antonio L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r368472739-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -422,6 +464,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>grannynorma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r367958359-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -437,6 +482,9 @@
     <t>We were in The Colony for a memorial service. We choose Comfort Suites because we had stayed with Comfort Suites in several other towns. The rooms were clean, bed was very comfortable and the staff very accommodating. The only thing I would do differently would be to put a microwave in the breakfast area to heat the rolls in.</t>
   </si>
   <si>
+    <t>BranWick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r362925622-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -455,6 +503,9 @@
     <t>I stayed at this hotel last week and ended up checking out after the first night because the hotel was so nasty.  The lighting in the elevator was so low that I startled another guest that got on on another floor.  The first room that I was given came complete with the used soap from the previous guest still in the tub.  The front desk was very apologetic and immediately gave me another room.  It looked a little more clean, but I found that was only because the lighting in the room was so dim.  The desk lamp was broken, and even with the rest of the lights on in the room, the total light output was about equivalent to a single 40 watt bulb.  The toilet paper dispenser was broken, and the Kleenex dispenser was empty (most unfortunate given the runny nose that accompanied my allergies).  The worst surprise came when I took my shower.  There was residue from someone's soap on the soap holder, and soap scum on the shower walls.  It obviously hadn't been cleaned well.  The first towel that I grabbed had brown smears of Heaven only knows what on it.  It was obvious that it hadn't been washed.  This hotel was a little shabby, but had it been clean it would have been perfectly acceptable.  The only good thing that I can say about this place is that the desk staff was pleasant and helpful....I stayed at this hotel last week and ended up checking out after the first night because the hotel was so nasty.  The lighting in the elevator was so low that I startled another guest that got on on another floor.  The first room that I was given came complete with the used soap from the previous guest still in the tub.  The front desk was very apologetic and immediately gave me another room.  It looked a little more clean, but I found that was only because the lighting in the room was so dim.  The desk lamp was broken, and even with the rest of the lights on in the room, the total light output was about equivalent to a single 40 watt bulb.  The toilet paper dispenser was broken, and the Kleenex dispenser was empty (most unfortunate given the runny nose that accompanied my allergies).  The worst surprise came when I took my shower.  There was residue from someone's soap on the soap holder, and soap scum on the shower walls.  It obviously hadn't been cleaned well.  The first towel that I grabbed had brown smears of Heaven only knows what on it.  It was obvious that it hadn't been washed.  This hotel was a little shabby, but had it been clean it would have been perfectly acceptable.  The only good thing that I can say about this place is that the desk staff was pleasant and helpful.  I will never stay in this filthy dump again.More</t>
   </si>
   <si>
+    <t>Terrara K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r361161348-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -473,6 +524,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>Pastelmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r356419387-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -497,6 +551,9 @@
     <t>I'm reviewing this mainly to say: "Near Stonebriar Mall" is a relative term...it will take you a solid 10-15 min to get there, perhaps more with traffic and roadwork etc.  I personally did not find the location convenient for shopping in Frisco at all.  Way too far to go back and forth from room to stores.  There are many choices much closer.  This is in the next town over.As far as the hotel itself, my room was very comfortable.  The bed was cozy and the amenities were great.  There seemed to be a piece old gum stuck in the carpet in one spot which I stepped on barefoot (yuck).  But otherwise room was clean.  Breakfast was pretty good with many options.  I would stay here again, but not if the purpose of my trip was to be near Frisco shopping.More</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r353699607-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -512,6 +569,9 @@
     <t>Our first time at this hotel. Quick check in. Sharon did everything right. Very pleasant. Very helpful. The hotel is around 12 years old. But it looks like they did a nice redo. Everything in the room was fresh. Nice fixtures, paint, carpet, facets and such. Flat screen T.V. HBO. Fridg. and microwave.  Free Wi-Fi. Free parking. Free breakfast. Good location. Quiet area. If needing a hotel in this class in this area, I would stay here again.</t>
   </si>
   <si>
+    <t>Scot028</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r349907320-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -530,6 +590,9 @@
     <t>My family &amp; I stayed at this hotel a night before a very early flight from Love Field.  Christina, at the front desk, was very accommodating, allowing us to see a room prior to check-in.  The room was clean and a comfortable size, having 2 queen beds and a sofa sleeper.  We were very satisfied with the room &amp; the customer service provided by the front desk personnel, who had breakfast sacks for us to take in the car, as we needed to leave prior to the breakfast hours.  I attempted to stay on Choice Privileges points, calling from the hotel lobby &amp; attempting to use the lobby computer, but for some reason CP was down.  Considering the CP difficulty and knowing that I work at a Choice Property, Christina &amp; I agreed on a room rate.  When checking my bank statement days later, I realized that the hotel had charged me TRIPLE the rate that was reflected on the registration card.  When I called to discuss the issue with the General Manager, Julio, I was met with apathy, disrespect &amp; a complete lack of customer service.  If I demonstrated that type of treatment to a customer, I would expect at least a reprimand from the hotel owner if not, outright termination.  It is highly unethical to charge a guest a rate different than that on the signed registration card.More</t>
   </si>
   <si>
+    <t>Sun Kissed W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r345785046-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -545,6 +608,9 @@
     <t xml:space="preserve">We came from a long day of travel and were exhausted, the staff saw to our every need.  The check in process was easy and fast. The manager saw how tired we were and upgraded our room to a jacuzzi stuite  for free. Now that is service! </t>
   </si>
   <si>
+    <t>LUmom2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r342850387-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -561,6 +627,9 @@
   </si>
   <si>
     <t>January 2016</t>
+  </si>
+  <si>
+    <t>bacrowe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r339396985-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -598,6 +667,9 @@
 In the next parking lot is...12/31/2015 we stayed here and I am glad we did. The area is growing. Check in was fast and easy. The lobby area was nice. This is a hotel with 3 floors. When we arrived in our room it was a king suite, microwave, fridge, 1 tv and sofa bed. There was a small black stain on the carpet. The hotel can use a little updating but nothing disgusting. The first night, the hot water ran out and I had to take a COLD shower. It was fixed immediately the next day but the water draining was still VERY slow. Housekeeping can pay a little more attention to cleaning the bathroom. The walls near the toilet had something suspect on them(that was kind of gross).The cable has a lot of good channels especially for sports fans, GOLF, ESPN, BET etc; for the teensI saw a few guests with their dogs but I did not see a lot of pet waste around the grounds of the hotel.Breakfast: There were the typical fake eggs,bacon(1 day) sausage(another day) waffles, pastries, yogurt, coffee, juices and cereal. A few time The area was maintained and clean.Overall the stay was good.Location: Top Golf is literally across the street(you can walk). On the same side of the street as Top Golf there is a Peter Piper pizza, Freddy's burgers and custard, Firestone and some other retail.In the next parking lot is some type of bar called the Drunken something. There is a Wells Fargo, Ross store, Ihop, Popeye's Discount tire and NTBAcross from the above parking lot is a Chik fil A, Starbucks, Walmart and other retailOn the other side of the freeway is a Target, Dollar Tree, Schlotzsky's, Koger, Freebirds and other retail.The Stonebriar Mall is 5 miles up the road.More</t>
   </si>
   <si>
+    <t>Terri S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r337293639-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -613,6 +685,9 @@
     <t>After being on the road for over nine hours, it was wonderful to see a smiling face and a clean establishment.  The rooms were clean and comfortable.  The indoor pool was large enough for a group of older teens to have a good time.  The breakfast was hot, fresh, and well stocked.  The location is only about fifteen minutes from downtown Dallas, so don't pass this place up!</t>
   </si>
   <si>
+    <t>KingofSC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r325126923-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -631,6 +706,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>CallousDream</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r322343894-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -649,6 +727,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>terriam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r321756628-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -665,6 +746,9 @@
   </si>
   <si>
     <t>Liked the price, the selection of different pillow types and the free breakfast but hard to overlook mediocre housekeeping. We checked in but really didn't have time to closely inspect the room. At 12:30 am that night when we actually used the bathroom there appeared to be blood spatter within 6 inches of the toilet tissue roll. Hmm, too close to be overlooked. Also, toothpaste splash on the framed vanity mirror. We were in a hurry the next morning and I didn't mention it to the front desk, curious if it would be detected that day. Nope. The front desk staff seemed nice, wish I had time to call those things to their attention, but seriously, I think housekeeping should have been more thorough.More</t>
+  </si>
+  <si>
+    <t>lidar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r299953596-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -704,6 +788,9 @@
 The rooms are aging.  I think they tried to remodel parts of the rooms, but the popcorn ceilings, aging carpet,  grout and stains in the tubs and rusty handles leave a less the favorable impression.  The room we initially started with had a cracked sink mirror, unclean sink area, chipped tub and a broken window bar.  It left an unfavorable impression.  I tried calling the front desk but the phone also did not work.  I walked back up front and the front desk agent was very nice and apologetic.  He tried hard to make it right and upgraded us to a room with a Jacuzzi. I was happy...If you like Choice Hotel brand, this hotel is okay, but aging.  I would recommend another Choice property, the Cambria Suites at Legacy, if you can get the same prices the Cambia is newer and superior. Pros:Price - it was $20-$30 cheaper than most hotels in the area (Frisco/Plano) on the night we were looking for.  If we had booked 1 day sooner, the Cambria at Legacy had the same price.Location IF you like Top Golf (its right across the street). The area is a bit mixed on the side of the hotel and congested.  On the other side of 121, the Studio Movie Grill just opened in July and of course Nebraska Furniture Mart is nearby.  Breakfast - Included with your stayIndoor Pool King Beds, Good pillowsCons:The rooms are aging.  I think they tried to remodel parts of the rooms, but the popcorn ceilings, aging carpet,  grout and stains in the tubs and rusty handles leave a less the favorable impression.  The room we initially started with had a cracked sink mirror, unclean sink area, chipped tub and a broken window bar.  It left an unfavorable impression.  I tried calling the front desk but the phone also did not work.  I walked back up front and the front desk agent was very nice and apologetic.  He tried hard to make it right and upgraded us to a room with a Jacuzzi. I was happy to see the room was cleaner and cooler and appreciated his efforts.  He was very pleasant and went out of his way to help change our experience.More</t>
   </si>
   <si>
+    <t>BAC1981</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r296088867-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -722,6 +809,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>GoHeeterGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r279407412-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -743,6 +833,9 @@
     <t>Check-in was easy. The room was clean and the bed was comfortable. They have plenty of plug ins to charge all of your gadgets! This hotel is just across the street from Top Golf, which was very convenient for us, since that was one of the main points of our trip. You can just walk over to Top Golf and not have to worry about trying to find parking over there. The hotel offers a free breakfast. I'm unable to comment on that, since we did not get to try it. The only reason I give this hotel a 4 instead of a 5 is for the noise. I'm not sure if the walls are too thin, or we had unusually noisy neighbors. I'm normally a pretty deep sleeper and I woke up twice during the night, hearing neighbors talking on either side of us.More</t>
   </si>
   <si>
+    <t>Tammygawry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r258323338-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -758,6 +851,9 @@
     <t xml:space="preserve">Room 216 is just above the lobby. I am writing this review at 1am. I haven't slept due to people allowed to visit loudly in the lobby all night. I've tried to adjust the thermastat multiple times to keep a fan running to dull the noise. </t>
   </si>
   <si>
+    <t>Ann M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r253733734-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -776,6 +872,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>honestrealreviews</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r220984705-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -794,6 +893,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Haris S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r213315814-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -815,6 +917,9 @@
     <t>I stayed at this hotel for 6 nights recently in a twin double bed suite. I must say I was in for a pleasant surprise. Its a fantastic place to stay. Right from the lobby till the room, its very clean and tidy. Everything is properly placed. Maintenance is excellent. Room was is excellent condition. IT included a coffee maker, fridge n microwave. Seems like its recently renovated. The guy at the reception, Robert, was an extremely helpful and polite gentleman who also gave us complimentary gift bags which included water bottles, cheese snack n mix nuts. complementary breakfast was excellent, housekeeping was excellent, pool n spa were excellent. Ideal location. Thank you everyone at the hotel. I will definitely stay here the next time im in Dallas. Thumbs Up!!!More</t>
   </si>
   <si>
+    <t>Mickey2go</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r205983345-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -834,6 +939,9 @@
   </si>
   <si>
     <t>This hotel recently had a fire. I stayed on the 3rd floor and half the hall was taped off with plastic. Customer service was okay but the property has been neglected. The stone gardens outside have weeds growing all through them and there are stains all over the hallway carpet. The shower curtain was dirty and I didn't even want to touch it. The wifi was weak in my room which was super disappointing. They have a small snack shop but there was no water and no diet drinks. I don't think it will stay here again. I prefer the other Comfort Suites in the area. This hotel was a little hard to find. It is beside the big golf range.More</t>
+  </si>
+  <si>
+    <t>AmandaRadFromDetroit</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r200765243-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -865,6 +973,9 @@
 The pool is a decent size! The only thing I disliked is that it is a salty pool (but clean!) and it is VERY warm. I prefer a cold pool but for those of you who like...I review EVERYTHING good and bad from hotels, to fast food, to nail salons to regular retail stores. I am known for reviewing everything, especially with how often I travel. So you can trust my opinion as I review this hotel.This hotel was amazing. The room was absolutely beautiful and comfortable. We had a room with a huge king bed and a pull out sofa bed. The bathroom was so big it could fit a wheel chair inside, which was awesome. We got a steal on this room because we used hotels.com. They offer HOT breakfast every morning, which we took full advantage of. Bacon and eggs, bagels, Texas shaped (delicious) waffles and cereal with cold juices and water. Stay during the week and this place is dead which is awesome. The staff is AMAZING. Everyone at the front desk was so nice and more than willing to bring us more items such as pillows, blankets and pool towels. The lady who worked the breakfast area was so extremely kind she greeted us every morning, making sure we enjoyed the food and told us to have a great rest of our day. She was adorable and I can't get over her kindness. The pool is a decent size! The only thing I disliked is that it is a salty pool (but clean!) and it is VERY warm. I prefer a cold pool but for those of you who like a nice warm pool this place is for you. Regardless, I enjoyed swimming in it. The hotel is located right next to many places such as Roma's Pizza (delish!) Walmart, IHOP, Staples, and more. Lots of stuff to do, and it is a nice away from the traffic location. If I return, I will stay here again hands down!More</t>
   </si>
   <si>
+    <t>HappyMissourian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r194395151-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -883,6 +994,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>onlymeinArkansas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r192478223-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -910,6 +1024,9 @@
     <t>This was our second stay at this hotel which we chose because of it's close proximity to where we were working, and will also be our last. The staff are not friendly and usually the front desk is unmanned and you have to wait for someone to come around. Now I did make some allowance for the fact that they had suffered a fire, but the doors remained damaged due to firemen gaining entrance to them. The management describe them as scratches. On both occasions I felt ill in the mornings and I would suggest a air quality test be carried out. The internet access is slow and tv channels limited. I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>DJDAMD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r183217686-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -928,6 +1045,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>ProfNielsen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r181193163-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -943,6 +1063,9 @@
     <t>The check in was efficient and quick.  The room is nice -- clean and looks like new carpet.  Quiet area.  Good exercise room.  Best part it was much less than other motels in the Dallas area.  Great deal and a nice place to stay.</t>
   </si>
   <si>
+    <t>billy b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r154205241-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -970,6 +1093,9 @@
     <t>we went to this hotel for two reasons,,,, they advertise an indoor heated pool which was reason one.  the second was too sleep.  the pool was not heated.  we asked the front desk they called the owner to see if they could turn it up, which they did.  but it takes awhile to heat a pool.  the next morning we tried again, it was cold again.  asked the front desk.  this time she had no key to the heater room.  she called the owner after I complained again and let them know the only reason we was there was to let the kids swim.  they gave a $15 dollar discount on our $109 room.  the breakfast was pretty decent though.  the room was your average $40 motel six room.More</t>
   </si>
   <si>
+    <t>Kajode_50</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r151277117-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -991,6 +1117,9 @@
     <t>Hotel was dark, run-down, depressing. We paid $150 for a 1-bedroom king suite, $50 more than the Residence Inn just up the road which was WAY nicer.  The shower was broken.  We ended up moving to a smaller room the next morning, which seemed to be in better shape.  Breakfast was a real disappointment, powdered eggs and greasy undercooked bacon.  Coffee was mediocre.  My advice: stay somewhere else.More</t>
   </si>
   <si>
+    <t>tmshafer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r150145335-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1030,6 +1159,9 @@
     <t>Just wanted to get away so we stayed here Friday 12/14 to Sunday 12/16. Upon arrival the hotel was nice on the outside, once we entered the entrance was clean and welcoming. POSITIVE: The front desk staff as well as the dinning staff were very nice. Hotel accepts pets for pet lovers who travel with their pets. There is a Walmart shopping center across the light as well as Target shopping center across the freeway. The room includes mini fridge and microwave. There was adequate amount of towels for our 2 night stay.NEGATIVE: DO NOT stay in room 317 as it is right next to the elevator and you can hear the elevator each time. Our door was VERY hard to close. The a/c did not get cool.The shower made an awful sound that made us rush our shower. Bed was not that comfortable.The microwave also made a horrible sound so I just ate my left overs cold. LAST, as a responsible pet owner we pick up our dogs waste and the hotel grounds were full of dog waste of all sizes. The staff was amazing and I only gave the 4 stars because of the negative reasons.More</t>
   </si>
   <si>
+    <t>unibrein</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r140471598-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1048,6 +1180,9 @@
     <t>USA, please change your standards, carpets are not okay I really wonder if it makes the air clean! It is giving me serious breathing problems.Furthermore the name of the hotel claims its near the mall, it just isn't, there are a lot more better options then this hotel.More</t>
   </si>
   <si>
+    <t>Lisasblessings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r135788737-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1066,6 +1201,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Beth M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r132537180-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1084,6 +1222,9 @@
     <t>From the moment Sharon checked us in till we left a couple of days later, this place was great.  The bed was comfy and the room was very spacious.  Everyone greeted us with a smile as we went in or out each day.  The hotel was very clean and well-kept at all times.  The breakfast was better than most we've had, though it was lacking a bit in variety for me.  I never seemed to hit a time when bananas were available and I would have liked cinnamon rolls rather than the jelly-centered danishes.  But for the most part, everything was to our liking and we were more than satisfied.  We will definitely stay there when we return to the area in a few weeks.  Thanks Sharon and the rest of the staff!More</t>
   </si>
   <si>
+    <t>CarrieD6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r129665442-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1105,6 +1246,9 @@
     <t>We stayed at this hotel for 3 nights.  Overall it was very nice.  It was very clean!  The pool was nice.  I didn't visit the gym area, but it resembled most other hotel gyms; i.e. treadmill, elliptical, some weights.  The hotel features a hot breakfast that is included for the price.  The breakfast was very good!  Our room was nice.  It was clean, has a very nice sitting area, mini fridge, coffee maker, and microwave.  the bed was comfortable and we had plenty of pillows. We did have an issue with the toilet not flushing correctly.  The hotel staff was unable to fix it, so they opened up the adjoining room for us to use, in addition to our original room.  I appreciated not having to move all of our stuff!  And we enjoyed the whirlpool tub that was in the new room.  Unfortunately, the smoke alarm in the new room started beeping, from a low battery, in the middle of the night during our last night.  I slept through it, but it did wake up my husband.  Overall we enjoyed the hotel.  The staff was very friendly, helpful, and accommodating.  I think we just experienced some bad luck.  I wouldn't let this prevent us from using this hotel again though.  I would recommend this hotel to others.  I think this hotel would be good for business, pleasure, and family travel.More</t>
   </si>
   <si>
+    <t>RobertL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r120251336-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1267,9 @@
     <t>April 2011</t>
   </si>
   <si>
+    <t>STM0041</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r119121647-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1291,9 @@
     <t>So many hotel choices in Dallas area.  I was attending some sporting events in the area and my son recommended this hotel to me as it was clse to his home.  For $60 including tax, this hotel provided an adequate room with a king sized bed that was comfortable.  Plenty of towels and a 32" flat screen TV.  Breakfast included scrambled eggs, sausage, biscuits, gravy, cereal, juice, bagels, pastries, waffles, etc.  Best I ever had?  no.  Reasonable breakfast?  of course.  Room was impeccably clean, check in process was quick, parking was free, room was quiet.  I wouldn't hesitate to stay here again.  Room included a refridgerator and microwave.  Coffee available 24/7 in lobby.More</t>
   </si>
   <si>
+    <t>bekrann48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r10219775-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1312,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>tulsasoftballtravelr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r6349808-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1333,9 @@
     <t>We reserved a room for a week. Over a month before we were to stay there we had to cancel. My wife called to cancel and Joann was not available to take the call so the ladt on the phone said she could do it. She gave my wife a cancellation number and that was that. Not true. We received our credit card bill and there was a charge for one nights stay. My wife called and talked to Joann regarding this issue. From the first word out of my wifes mouth Joann was rude to her and informed my wife that she did not have time to deal with this issued and we shoul;d dispute it with the credit card compny. That is the great attitude they seem to have at this hotel. We will charge you and if you dont like it dispute it we are not going to help you no matter what.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r4996320-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1201,6 +1357,9 @@
     <t>Hotel room was not the cleaniest.  Window unit was noisy.  Beds do not have fitted sheets they work their way off as you sleep.  Toilet would not flush.  Nice size room with half wall that had sofa/coffee table desk etc.  Some of the furniture was well worn.  Was told the hotel was 6 years old and had been recently remodeled.  Rooms did have microwave, coffee pot, and refrigerator. Over $100 for Thurs. stay.Continental breakfast was a joke.  There was cereal, prepackaged muffins, bagels and waffles.  The waffle mix hadn't been stirred well enough before it was put in the dispenser and had lumps of flour all in it.  They weren't edible.  The microwave must have been 20 years old.  Apple juice dispenser didn't have apple juice in it, I think it must have been water.More</t>
   </si>
   <si>
+    <t>solgirlDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r4417739-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1232,6 +1391,9 @@
   </si>
   <si>
     <t>Checked in to discover that they don't honor prepaid online reservations.  Had made a reservation through comfort Inn online for non-smoking king suite.  They didn't have one available on arrival so gave us the only thing left...smoking, double bed.  Bed didn't have sheets on it.  Bathroom filthy, air conditioner did not work nor did the elevator.  We left and checked in to another hotel.  Will never stay at a Comfort Inn again.More</t>
+  </si>
+  <si>
+    <t>LMDanley</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r2973763-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -1769,43 +1931,47 @@
       <c r="A2" t="n">
         <v>38134</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>47947</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1823,50 +1989,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38134</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125757</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1880,50 +2050,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38134</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125758</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1943,50 +2117,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38134</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125759</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2004,50 +2182,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38134</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>125760</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -2065,50 +2247,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38134</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125761</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2122,50 +2308,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38134</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125762</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -2185,50 +2375,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38134</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125763</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2242,41 +2436,45 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38134</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>125764</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
@@ -2295,50 +2493,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38134</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>125765</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2352,41 +2554,45 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38134</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125766</v>
+      </c>
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
@@ -2405,50 +2611,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38134</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125767</v>
+      </c>
+      <c r="C13" t="s">
+        <v>125</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2462,50 +2672,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38134</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125768</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2525,50 +2739,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38134</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>125769</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2582,50 +2800,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38134</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125770</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="K16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2643,50 +2865,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38134</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>61095</v>
+      </c>
+      <c r="C17" t="s">
+        <v>154</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
+        <v>146</v>
+      </c>
+      <c r="O17" t="s">
         <v>132</v>
-      </c>
-      <c r="O17" t="s">
-        <v>120</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2704,50 +2930,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38134</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125771</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2761,50 +2991,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38134</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125772</v>
+      </c>
+      <c r="C19" t="s">
+        <v>168</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="J19" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2818,50 +3052,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38134</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C20" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2881,50 +3119,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38134</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125773</v>
+      </c>
+      <c r="C21" t="s">
+        <v>183</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2942,50 +3184,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38134</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125774</v>
+      </c>
+      <c r="C22" t="s">
+        <v>190</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="J22" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>174</v>
       </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>156</v>
-      </c>
       <c r="O22" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2999,50 +3245,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38134</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125775</v>
+      </c>
+      <c r="C23" t="s">
+        <v>196</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="J23" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="K23" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="O23" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3060,50 +3310,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38134</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>51908</v>
+      </c>
+      <c r="C24" t="s">
+        <v>203</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="K24" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3123,50 +3377,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38134</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>22799</v>
+      </c>
+      <c r="C25" t="s">
+        <v>211</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="J25" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="K25" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3184,50 +3442,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38134</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>125776</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J26" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="K26" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="O26" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3241,50 +3503,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38134</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125777</v>
+      </c>
+      <c r="C27" t="s">
+        <v>224</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="J27" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3304,50 +3570,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38134</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>125778</v>
+      </c>
+      <c r="C28" t="s">
+        <v>231</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="J28" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="K28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="L28" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3365,50 +3635,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38134</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>18614</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="K29" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="L29" t="s">
-        <v>215</v>
+        <v>243</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3428,50 +3702,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38134</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125779</v>
+      </c>
+      <c r="C30" t="s">
+        <v>246</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3491,50 +3769,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38134</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125780</v>
+      </c>
+      <c r="C31" t="s">
+        <v>253</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="J31" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="K31" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
       <c r="L31" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="O31" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3554,41 +3836,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38134</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125781</v>
+      </c>
+      <c r="C32" t="s">
+        <v>261</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>232</v>
+        <v>263</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -3617,50 +3903,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38134</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>63022</v>
+      </c>
+      <c r="C33" t="s">
+        <v>267</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="K33" t="s">
-        <v>239</v>
+        <v>271</v>
       </c>
       <c r="L33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>273</v>
       </c>
       <c r="O33" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3674,50 +3964,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>240</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38134</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>78997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
       <c r="J34" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="L34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -3737,50 +4031,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38134</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125782</v>
+      </c>
+      <c r="C35" t="s">
+        <v>281</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -3804,50 +4102,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38134</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125783</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="J36" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="K36" t="s">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="L36" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="O36" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3861,50 +4163,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38134</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125784</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3928,50 +4234,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38134</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>125785</v>
+      </c>
+      <c r="C38" t="s">
+        <v>305</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -3985,50 +4295,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38134</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125753</v>
+      </c>
+      <c r="C39" t="s">
+        <v>312</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="J39" t="s">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="K39" t="s">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>317</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4040,56 +4354,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="X39" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="Y39" t="s">
-        <v>283</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38134</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125786</v>
+      </c>
+      <c r="C40" t="s">
+        <v>322</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="J40" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="K40" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4113,50 +4431,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38134</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125787</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>290</v>
+        <v>330</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>291</v>
+        <v>331</v>
       </c>
       <c r="J41" t="s">
-        <v>292</v>
+        <v>332</v>
       </c>
       <c r="K41" t="s">
-        <v>293</v>
+        <v>333</v>
       </c>
       <c r="L41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -4180,50 +4502,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>294</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38134</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125788</v>
+      </c>
+      <c r="C42" t="s">
+        <v>335</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="K42" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="L42" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4245,56 +4571,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X42" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y42" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38134</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>125789</v>
+      </c>
+      <c r="C43" t="s">
+        <v>345</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>347</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>348</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>349</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>1</v>
@@ -4316,47 +4646,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X43" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y43" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38134</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125790</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>311</v>
+        <v>354</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="J44" t="s">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="K44" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
@@ -4383,56 +4717,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X44" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y44" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38134</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>51908</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P45" t="n">
         <v>5</v>
@@ -4454,47 +4792,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y45" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38134</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125791</v>
+      </c>
+      <c r="C46" t="s">
+        <v>367</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="J46" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="K46" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="L46" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
@@ -4521,56 +4863,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X46" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38134</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125792</v>
+      </c>
+      <c r="C47" t="s">
+        <v>374</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="J47" t="s">
-        <v>332</v>
+        <v>377</v>
       </c>
       <c r="K47" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="L47" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4594,50 +4940,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38134</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>8416</v>
+      </c>
+      <c r="C48" t="s">
+        <v>381</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="J48" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="K48" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="L48" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -4661,50 +5011,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38134</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>125793</v>
+      </c>
+      <c r="C49" t="s">
+        <v>388</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>342</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="J49" t="s">
-        <v>344</v>
+        <v>391</v>
       </c>
       <c r="K49" t="s">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="L49" t="s">
-        <v>346</v>
+        <v>393</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>347</v>
+        <v>394</v>
       </c>
       <c r="O49" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P49" t="n">
         <v>5</v>
@@ -4728,50 +5082,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38134</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>38866</v>
+      </c>
+      <c r="C50" t="s">
+        <v>396</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>350</v>
+        <v>398</v>
       </c>
       <c r="J50" t="s">
-        <v>351</v>
+        <v>399</v>
       </c>
       <c r="K50" t="s">
-        <v>352</v>
+        <v>400</v>
       </c>
       <c r="L50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
       <c r="M50" t="n">
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -4795,50 +5153,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>353</v>
+        <v>401</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38134</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125794</v>
+      </c>
+      <c r="C51" t="s">
+        <v>403</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>356</v>
+        <v>405</v>
       </c>
       <c r="J51" t="s">
-        <v>357</v>
+        <v>406</v>
       </c>
       <c r="K51" t="s">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s">
-        <v>359</v>
+        <v>408</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
@@ -4862,50 +5224,54 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38134</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125795</v>
+      </c>
+      <c r="C52" t="s">
+        <v>411</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>363</v>
+        <v>413</v>
       </c>
       <c r="J52" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="K52" t="s">
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="L52" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="O52" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -4929,41 +5295,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38134</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125796</v>
+      </c>
+      <c r="C53" t="s">
+        <v>418</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>368</v>
+        <v>419</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>369</v>
+        <v>420</v>
       </c>
       <c r="J53" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="K53" t="s">
-        <v>371</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -4980,56 +5350,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X53" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y53" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38134</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>425</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>374</v>
+        <v>426</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>375</v>
+        <v>427</v>
       </c>
       <c r="J54" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="K54" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5049,47 +5423,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X54" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y54" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38134</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>125797</v>
+      </c>
+      <c r="C55" t="s">
+        <v>433</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>381</v>
+        <v>434</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="J55" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -5116,41 +5494,45 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38134</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>7</v>
+      </c>
+      <c r="C56" t="s">
+        <v>425</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="K56" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="L56" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
@@ -5175,47 +5557,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X56" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y56" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38134</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>125798</v>
+      </c>
+      <c r="C57" t="s">
+        <v>445</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="J57" t="s">
-        <v>394</v>
+        <v>448</v>
       </c>
       <c r="K57" t="s">
-        <v>395</v>
+        <v>449</v>
       </c>
       <c r="L57" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5242,41 +5628,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>396</v>
+        <v>450</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38134</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>7</v>
+      </c>
+      <c r="C58" t="s">
+        <v>425</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>397</v>
+        <v>451</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>398</v>
+        <v>452</v>
       </c>
       <c r="J58" t="s">
-        <v>399</v>
+        <v>453</v>
       </c>
       <c r="K58" t="s">
-        <v>400</v>
+        <v>454</v>
       </c>
       <c r="L58" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
@@ -5293,13 +5683,13 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="X58" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="Y58" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_109.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_109.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="534">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,42 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Tony W</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r598899480-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>56763</t>
+  </si>
+  <si>
+    <t>106246</t>
+  </si>
+  <si>
+    <t>598899480</t>
+  </si>
+  <si>
+    <t>07/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good breakfast </t>
+  </si>
+  <si>
+    <t>We had a larger family group and needed 2 rooms. The rooms had some updates done but could use a few more. One room smelled of smoke and both rooms were none smoking. The pool was the main reason we stayed but the chemical smell was really bad &amp; burned everyone’s eyes after a while. It was extremely bad if you turned on the hot tub. The beds were extremely comfortable, the sofa did not have sheets and did not look comfortable. The breakfast was plentiful and tasty. It seems like the hotel is going through some transition and getting better. I would give it a second chance in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We had a larger family group and needed 2 rooms. The rooms had some updates done but could use a few more. One room smelled of smoke and both rooms were none smoking. The pool was the main reason we stayed but the chemical smell was really bad &amp; burned everyone’s eyes after a while. It was extremely bad if you turned on the hot tub. The beds were extremely comfortable, the sofa did not have sheets and did not look comfortable. The breakfast was plentiful and tasty. It seems like the hotel is going through some transition and getting better. I would give it a second chance in the future.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r583725307-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
-    <t>56763</t>
-  </si>
-  <si>
-    <t>106246</t>
-  </si>
-  <si>
     <t>583725307</t>
   </si>
   <si>
@@ -180,12 +201,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Togaset</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r569381961-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -207,9 +222,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>jeaniebohall</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r552728002-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -223,17 +235,14 @@
   </si>
   <si>
     <t>I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.
-The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and...I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and tile was coming away from the wall (I could have easily took it all off).  There was not any sheets for the very uncomfortable hideaway bed in the couch, so I went to the front desk.  No one was there, so I waited for someone to show up.  After standing there for a few minutes, I noticed I could hear a TV in the background playing.  I cleared my throat to try to see if anyone was there, and a woman appeared from around the corner.  I assume she was watching a show on the computer and wasn't paying attention.  I asked for sheets and extra pillows and they did not have any extra pillows.  I took the sheets to the room and there were paint like stains on the sheets.My husband went to check out the pool and he came back and said that the pool was not swimmable.  There was a terrible smell when you went into the pool area and there was no way to see at the bottom of the pool.  This was the main reason for staying here (the pool online looked bigger than La Quinta - which we should have stayed there!!).The next morning I went to complain to a manager.  There was an assistant manager there and looked at me ion disbelief when I was explaining what I had encountered.  He quickly said, "I will fix this.." and went behind the desk.  He received a call and ended up being very...MoreShow less</t>
+The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and...I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and tile was coming away from the wall (I could have easily took it all off).  There was not any sheets for the very uncomfortable hideaway bed in the couch, so I went to the front desk.  No one was there, so I waited for someone to show up.  After standing there for a few minutes, I noticed I could hear a TV in the background playing.  I cleared my throat to try to see if anyone was there, and a woman appeared from around the corner.  I assume she was watching a show on the computer and wasn't paying attention.  I asked for sheets and extra pillows and they did not have any extra pillows.  I took the sheets to the room and there were paint like stains on the sheets.My husband went to check out the pool and he came back and said that the pool was not swimmable.  There was a terrible smell when you went into the pool area and there was no way to see at the bottom of the pool.  This was the main reason for staying here (the pool online looked bigger than La Quinta - which we should have stayed there!!).The next morning I went to complain to a manager.  There was an assistant manager there and looked at me ion disbelief when I was explaining what I had encountered.  He quickly said, "I will fix this.." and went behind the desk.  He received a call and ended up being very short with the employee on the other line and said, "I need to call you back" and slammed the phone down.  He printed a paper and gave it to me and it showed a $20 credit.  There was no "I am sorry for your experience..."  nothing like that.  He did say that he knew they have people scheduled to clean the pool, and so it might have not necessarily been up to our  standards.  This was definitely NOT the case.  We are very understanding people, but when we receive terrible customer service and our health is involved, we feel the need to inform someone.  I hope this review helps someone in finding a hotel in this area.  DO NOT STAY HERE.MoreShow less</t>
   </si>
   <si>
     <t>December 2017</t>
   </si>
   <si>
     <t>I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.
-The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and...I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and tile was coming away from the wall (I could have easily took it all off).  There was not any sheets for the very uncomfortable hideaway bed in the couch, so I went to the front desk.  No one was there, so I waited for someone to show up.  After standing there for a few minutes, I noticed I could hear a TV in the background playing.  I cleared my throat to try to see if anyone was there, and a woman appeared from around the corner.  I assume she was watching a show on the computer and wasn't paying attention.  I asked for sheets and extra pillows and they did not have any extra pillows.  I took the sheets to the room and there were paint like stains on the sheets.My husband went to check out the pool and he came back and said that the pool was not swimmable.  There was a terrible smell when you went into the pool area and there was no way to see at the bottom of the pool.  This was the main reason for staying here (the pool online looked bigger than La Quinta - which we should have stayed there!!).The next morning I went to complain to a manager.  There was an assistant manager there and looked at me ion disbelief when I was explaining what I had encountered.  He quickly said, "I will fix this.." and went behind the desk.  He received a call and ended up being very...More</t>
-  </si>
-  <si>
-    <t>Hicks B</t>
+The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and...I never write reviews.  I always read them and take them into consideration, but this hotel stay I felt I needed to write a review.  My husband and I took our 3 girls (2, 4, 6yr) and our two nephews (7 &amp; 10) to the Dallas area for a Christmas trip.  We usually stay with family, but thought it would be fun to stay in a hotel and swim in the pool.  The reviews weren't too bad and the pictures looked good online, so I called to try to decide what their biggest room would be to fit us all comfortably.  When I called there was a man on the other line (this was about 8pm) and he did not at all seem interested in my questions regarding rooms.  I could hear the other line ringing and then he quickly tried to get me off the phone and told me a website to look at that I had trouble finding.  I overlooked this and finally when I found where he was talking about online, I booked.The next day, we got in late due to being at Six Flags all day, and so when we got into our room the first thing we noticed was a terrible smell.  The counter was NOT cleaned and when we walked in you could see the rings where cups and different things were sitting.  Going into the bathroom, the bathroom was very old and tile was coming away from the wall (I could have easily took it all off).  There was not any sheets for the very uncomfortable hideaway bed in the couch, so I went to the front desk.  No one was there, so I waited for someone to show up.  After standing there for a few minutes, I noticed I could hear a TV in the background playing.  I cleared my throat to try to see if anyone was there, and a woman appeared from around the corner.  I assume she was watching a show on the computer and wasn't paying attention.  I asked for sheets and extra pillows and they did not have any extra pillows.  I took the sheets to the room and there were paint like stains on the sheets.My husband went to check out the pool and he came back and said that the pool was not swimmable.  There was a terrible smell when you went into the pool area and there was no way to see at the bottom of the pool.  This was the main reason for staying here (the pool online looked bigger than La Quinta - which we should have stayed there!!).The next morning I went to complain to a manager.  There was an assistant manager there and looked at me ion disbelief when I was explaining what I had encountered.  He quickly said, "I will fix this.." and went behind the desk.  He received a call and ended up being very short with the employee on the other line and said, "I need to call you back" and slammed the phone down.  He printed a paper and gave it to me and it showed a $20 credit.  There was no "I am sorry for your experience..."  nothing like that.  He did say that he knew they have people scheduled to clean the pool, and so it might have not necessarily been up to our  standards.  This was definitely NOT the case.  We are very understanding people, but when we receive terrible customer service and our health is involved, we feel the need to inform someone.  I hope this review helps someone in finding a hotel in this area.  DO NOT STAY HERE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r551194259-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -254,9 +263,6 @@
     <t>Service and stay were both comfortable. A few things that didn't impact our comfort but did make me wonder about other shortcuts they may be taking in other areas such as housekeeping possibly. Hotel could use a little better maintenance. It seems to be a older bldg maybe and they have done the updating. There were a few things in our room where maintenance shortcuts were used instead of fixing the issues.Our window had a complete crack from top to bottom and instead of changing the window they just smeared clear silicone all the way down the break right in the middle of the window. They also changed the doorknob in the bathroom but it was smaller than the previous knob and they just left it looking very bad and incomplete and the caulking in the tub was very poorly completed. These things didn't ruin our stay or change the good service we received just made me check my bed and other things a little closer.More</t>
   </si>
   <si>
-    <t>TJH0413</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r536437672-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -275,7 +281,103 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t>Antonette C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r533128112-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>533128112</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t>Clean, reasonable price, friendly staff!</t>
+  </si>
+  <si>
+    <t>We took our boys for a birthday trip and specifically looked for a hotel with an indoor pool. Room was ready when we arrived. Breakfast was good with enough variety. Staff was helpful and friendly. Price was very reasonable for the area. Nothing fancy but very clean. Perfect for the occasion.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r512438528-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>512438528</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Hotel is close to all great actives same right across from Top Golf, Also multiple  great restaurants walking distance from it, Rooms are nice and comfortable. Staff is extremely friendly. If your coming to The Colony or any city close by this is the hotel to stay at :)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>bobkhalife2017, General Manager at Comfort Suites the Colony - Plano West, responded to this reviewResponded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2017</t>
+  </si>
+  <si>
+    <t>Hotel is close to all great actives same right across from Top Golf, Also multiple  great restaurants walking distance from it, Rooms are nice and comfortable. Staff is extremely friendly. If your coming to The Colony or any city close by this is the hotel to stay at :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r489422981-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>489422981</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Soccer tournament</t>
+  </si>
+  <si>
+    <t>Outstanding location and excellent price. This hotel was basically smack dab in the middle of where we needed to be for a weekend of soccer. It's right across the highway from Nebraska Furniture Mart where we love to shop. It's also right down the highway from the Frisco Rough Riders stadium where my son had to go for a Christian Athletes get together. Right next to Top Golf ( which stayed busy the whole weekend ) but we didn't have any issues with the noise. Great options for a hot breakfast so the kids had their pick of food. The beds were super comfy. A great pick for anyone who will need a great hotel near lots of things to do.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Outstanding location and excellent price. This hotel was basically smack dab in the middle of where we needed to be for a weekend of soccer. It's right across the highway from Nebraska Furniture Mart where we love to shop. It's also right down the highway from the Frisco Rough Riders stadium where my son had to go for a Christian Athletes get together. Right next to Top Golf ( which stayed busy the whole weekend ) but we didn't have any issues with the noise. Great options for a hot breakfast so the kids had their pick of food. The beds were super comfy. A great pick for anyone who will need a great hotel near lots of things to do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r481436996-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>481436996</t>
+  </si>
+  <si>
+    <t>05/03/2017</t>
+  </si>
+  <si>
+    <t>Great place!  Clean!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleanest Comfort Suites I've ever stayed in!!!!   It was dusted and clean throughout!  Beds were comfy.  Great modern decor and location was good also.  Breakfast area was a little over crowded ;) if I had to really look for something negative to say.  So happy for clean dusted rooms and clean outer halls.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r461449004-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>461449004</t>
+  </si>
+  <si>
+    <t>02/20/2017</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable &amp; Convenient</t>
+  </si>
+  <si>
+    <t>This hotel has nice, spacious suites perfect for leisure or business travel.  The bed is comfortable, and the in-room fridge and microwave are a nice touch.As I was here for business, I appreciated the free wi-fi, wireless printing to the Business Center, and adjustable desk (it's on wheels so you can move it if you like for a larger surface area or L-shape)And the hotel is conveniently located to a variety of activities, shops, and the airport.All of that and a great price to boot?  I'm happy!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r457410175-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -293,12 +395,6 @@
     <t xml:space="preserve">I would recommend this hotel. It's clean, the staff is friendly and accommodating.  Easy access to many restaurants and shopping . I travel to this area every other month and I will return to this hotel for sure </t>
   </si>
   <si>
-    <t>February 2017</t>
-  </si>
-  <si>
-    <t>WisconsinTarheel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r448305948-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -317,9 +413,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>altdent</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r439024480-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -338,9 +431,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>Debbi B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r432972642-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -356,9 +446,6 @@
     <t xml:space="preserve">Very nice thank you for the clean comfort by the by nice soap!! A nice spacious seating area. Wonderful comfortable bed. Breakfast was good. Nice indoor pool too. We will stay again close to the top golf and other things to do. </t>
   </si>
   <si>
-    <t>Joie B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r417614037-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -374,9 +461,6 @@
     <t>Stayed here one night while in town for a Jiu-jitsu tournament and it was a great experience!! Clean room friendly staff and breakfast was good. Nice pool and hot tub!! Very quiet. Would definitely recommend this place!!</t>
   </si>
   <si>
-    <t>DavitaJo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r400999934-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -395,9 +479,6 @@
     <t>We checked in to the Comfort Suites in The Colony because the AC was out in our home.  The front desk staff was helpful.  The room had a musty/moldy smell and...even better...the AC in our room didn't work.  (If I wanted to be hot we could have stayed at home for free.)  They had no other room to move us to so the (very very helpful) maintenance man installed a new unit while we went swimming with our 2 year old daughter.  The pool area smelled horribly and the water was cloudy and had a horrible smell.  I don't expect four star accomodations for $100 a night but at the very least I expect a clean, air conditioned room with a lack of offensive smell.  Pros: Lots of clean towels and the beds were actually pretty comfortable.  We didn't eat the breakfast so I can't comment on that. More</t>
   </si>
   <si>
-    <t>bryandenton</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r385227326-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -416,12 +497,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>andyspist</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r385069688-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -440,9 +515,6 @@
     <t>I come to Dallas/FTW area for business once or twice a year. Usually my company puts us up in another hotel chain, but recently our headquarters moved and due to a soccer tournament, the only property available this week was this one. I was disappointed the minute i walked into my room. For the purpose of being unbiased i will stick to the facts for this review. The room itself has a strange smell: not smoking or pet, but some kind of weird almost mold-like odor. The room was missing the remote for the TV; if that were all, no big deal. The toilet shakes every time i flush it, enough to bring down the raised toilet seat everytime. The room has a hole in the wall under the sick like someone kicked it, although it's so far under it's hard to imagine how that's possible. The room looks like they recently tried updating it on the cheap: new paint, some new bathroom fixtures, old furniture, air conditioner that makes a lovely humming sound all the time, Dynex TV model; rug could be new, but pattern is old looking. Closet has broken hanger, which i found out when i tried handing my pants. Shower was interesting to use as the only way to get the water to come out of the top is to pull the end of the spigot on the bottom (embarrassingly it took me 10 min to...I come to Dallas/FTW area for business once or twice a year. Usually my company puts us up in another hotel chain, but recently our headquarters moved and due to a soccer tournament, the only property available this week was this one. I was disappointed the minute i walked into my room. For the purpose of being unbiased i will stick to the facts for this review. The room itself has a strange smell: not smoking or pet, but some kind of weird almost mold-like odor. The room was missing the remote for the TV; if that were all, no big deal. The toilet shakes every time i flush it, enough to bring down the raised toilet seat everytime. The room has a hole in the wall under the sick like someone kicked it, although it's so far under it's hard to imagine how that's possible. The room looks like they recently tried updating it on the cheap: new paint, some new bathroom fixtures, old furniture, air conditioner that makes a lovely humming sound all the time, Dynex TV model; rug could be new, but pattern is old looking. Closet has broken hanger, which i found out when i tried handing my pants. Shower was interesting to use as the only way to get the water to come out of the top is to pull the end of the spigot on the bottom (embarrassingly it took me 10 min to figure this out and the night manager couldn't explain it very well over the phone). On the 3rd day of my stay, after a nice 45 min jog i came in to take a shower to find that the shower wasn't working. A call to the front desk informed me that there was a water break and they had shutoff the shower... even though my sink still had water. Sigh. That's it for now, but i have two days left here, so who knows what else will happen. Pray for me.More</t>
   </si>
   <si>
-    <t>NCL San Antonio L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r368472739-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -464,9 +536,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>grannynorma</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r367958359-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -482,9 +551,6 @@
     <t>We were in The Colony for a memorial service. We choose Comfort Suites because we had stayed with Comfort Suites in several other towns. The rooms were clean, bed was very comfortable and the staff very accommodating. The only thing I would do differently would be to put a microwave in the breakfast area to heat the rolls in.</t>
   </si>
   <si>
-    <t>BranWick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r362925622-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -503,9 +569,6 @@
     <t>I stayed at this hotel last week and ended up checking out after the first night because the hotel was so nasty.  The lighting in the elevator was so low that I startled another guest that got on on another floor.  The first room that I was given came complete with the used soap from the previous guest still in the tub.  The front desk was very apologetic and immediately gave me another room.  It looked a little more clean, but I found that was only because the lighting in the room was so dim.  The desk lamp was broken, and even with the rest of the lights on in the room, the total light output was about equivalent to a single 40 watt bulb.  The toilet paper dispenser was broken, and the Kleenex dispenser was empty (most unfortunate given the runny nose that accompanied my allergies).  The worst surprise came when I took my shower.  There was residue from someone's soap on the soap holder, and soap scum on the shower walls.  It obviously hadn't been cleaned well.  The first towel that I grabbed had brown smears of Heaven only knows what on it.  It was obvious that it hadn't been washed.  This hotel was a little shabby, but had it been clean it would have been perfectly acceptable.  The only good thing that I can say about this place is that the desk staff was pleasant and helpful....I stayed at this hotel last week and ended up checking out after the first night because the hotel was so nasty.  The lighting in the elevator was so low that I startled another guest that got on on another floor.  The first room that I was given came complete with the used soap from the previous guest still in the tub.  The front desk was very apologetic and immediately gave me another room.  It looked a little more clean, but I found that was only because the lighting in the room was so dim.  The desk lamp was broken, and even with the rest of the lights on in the room, the total light output was about equivalent to a single 40 watt bulb.  The toilet paper dispenser was broken, and the Kleenex dispenser was empty (most unfortunate given the runny nose that accompanied my allergies).  The worst surprise came when I took my shower.  There was residue from someone's soap on the soap holder, and soap scum on the shower walls.  It obviously hadn't been cleaned well.  The first towel that I grabbed had brown smears of Heaven only knows what on it.  It was obvious that it hadn't been washed.  This hotel was a little shabby, but had it been clean it would have been perfectly acceptable.  The only good thing that I can say about this place is that the desk staff was pleasant and helpful.  I will never stay in this filthy dump again.More</t>
   </si>
   <si>
-    <t>Terrara K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r361161348-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -524,9 +587,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t>Pastelmom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r356419387-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -551,9 +611,6 @@
     <t>I'm reviewing this mainly to say: "Near Stonebriar Mall" is a relative term...it will take you a solid 10-15 min to get there, perhaps more with traffic and roadwork etc.  I personally did not find the location convenient for shopping in Frisco at all.  Way too far to go back and forth from room to stores.  There are many choices much closer.  This is in the next town over.As far as the hotel itself, my room was very comfortable.  The bed was cozy and the amenities were great.  There seemed to be a piece old gum stuck in the carpet in one spot which I stepped on barefoot (yuck).  But otherwise room was clean.  Breakfast was pretty good with many options.  I would stay here again, but not if the purpose of my trip was to be near Frisco shopping.More</t>
   </si>
   <si>
-    <t>Mur018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r353699607-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -569,9 +626,6 @@
     <t>Our first time at this hotel. Quick check in. Sharon did everything right. Very pleasant. Very helpful. The hotel is around 12 years old. But it looks like they did a nice redo. Everything in the room was fresh. Nice fixtures, paint, carpet, facets and such. Flat screen T.V. HBO. Fridg. and microwave.  Free Wi-Fi. Free parking. Free breakfast. Good location. Quiet area. If needing a hotel in this class in this area, I would stay here again.</t>
   </si>
   <si>
-    <t>Scot028</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r349907320-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -590,9 +644,6 @@
     <t>My family &amp; I stayed at this hotel a night before a very early flight from Love Field.  Christina, at the front desk, was very accommodating, allowing us to see a room prior to check-in.  The room was clean and a comfortable size, having 2 queen beds and a sofa sleeper.  We were very satisfied with the room &amp; the customer service provided by the front desk personnel, who had breakfast sacks for us to take in the car, as we needed to leave prior to the breakfast hours.  I attempted to stay on Choice Privileges points, calling from the hotel lobby &amp; attempting to use the lobby computer, but for some reason CP was down.  Considering the CP difficulty and knowing that I work at a Choice Property, Christina &amp; I agreed on a room rate.  When checking my bank statement days later, I realized that the hotel had charged me TRIPLE the rate that was reflected on the registration card.  When I called to discuss the issue with the General Manager, Julio, I was met with apathy, disrespect &amp; a complete lack of customer service.  If I demonstrated that type of treatment to a customer, I would expect at least a reprimand from the hotel owner if not, outright termination.  It is highly unethical to charge a guest a rate different than that on the signed registration card.More</t>
   </si>
   <si>
-    <t>Sun Kissed W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r345785046-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -608,9 +659,6 @@
     <t xml:space="preserve">We came from a long day of travel and were exhausted, the staff saw to our every need.  The check in process was easy and fast. The manager saw how tired we were and upgraded our room to a jacuzzi stuite  for free. Now that is service! </t>
   </si>
   <si>
-    <t>LUmom2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r342850387-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -627,9 +675,6 @@
   </si>
   <si>
     <t>January 2016</t>
-  </si>
-  <si>
-    <t>bacrowe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r339396985-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -667,9 +712,6 @@
 In the next parking lot is...12/31/2015 we stayed here and I am glad we did. The area is growing. Check in was fast and easy. The lobby area was nice. This is a hotel with 3 floors. When we arrived in our room it was a king suite, microwave, fridge, 1 tv and sofa bed. There was a small black stain on the carpet. The hotel can use a little updating but nothing disgusting. The first night, the hot water ran out and I had to take a COLD shower. It was fixed immediately the next day but the water draining was still VERY slow. Housekeeping can pay a little more attention to cleaning the bathroom. The walls near the toilet had something suspect on them(that was kind of gross).The cable has a lot of good channels especially for sports fans, GOLF, ESPN, BET etc; for the teensI saw a few guests with their dogs but I did not see a lot of pet waste around the grounds of the hotel.Breakfast: There were the typical fake eggs,bacon(1 day) sausage(another day) waffles, pastries, yogurt, coffee, juices and cereal. A few time The area was maintained and clean.Overall the stay was good.Location: Top Golf is literally across the street(you can walk). On the same side of the street as Top Golf there is a Peter Piper pizza, Freddy's burgers and custard, Firestone and some other retail.In the next parking lot is some type of bar called the Drunken something. There is a Wells Fargo, Ross store, Ihop, Popeye's Discount tire and NTBAcross from the above parking lot is a Chik fil A, Starbucks, Walmart and other retailOn the other side of the freeway is a Target, Dollar Tree, Schlotzsky's, Koger, Freebirds and other retail.The Stonebriar Mall is 5 miles up the road.More</t>
   </si>
   <si>
-    <t>Terri S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r337293639-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -685,9 +727,6 @@
     <t>After being on the road for over nine hours, it was wonderful to see a smiling face and a clean establishment.  The rooms were clean and comfortable.  The indoor pool was large enough for a group of older teens to have a good time.  The breakfast was hot, fresh, and well stocked.  The location is only about fifteen minutes from downtown Dallas, so don't pass this place up!</t>
   </si>
   <si>
-    <t>KingofSC</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r325126923-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -706,9 +745,6 @@
     <t>November 2015</t>
   </si>
   <si>
-    <t>CallousDream</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r322343894-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -727,9 +763,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t>terriam</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r321756628-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -746,9 +779,6 @@
   </si>
   <si>
     <t>Liked the price, the selection of different pillow types and the free breakfast but hard to overlook mediocre housekeeping. We checked in but really didn't have time to closely inspect the room. At 12:30 am that night when we actually used the bathroom there appeared to be blood spatter within 6 inches of the toilet tissue roll. Hmm, too close to be overlooked. Also, toothpaste splash on the framed vanity mirror. We were in a hurry the next morning and I didn't mention it to the front desk, curious if it would be detected that day. Nope. The front desk staff seemed nice, wish I had time to call those things to their attention, but seriously, I think housekeeping should have been more thorough.More</t>
-  </si>
-  <si>
-    <t>lidar</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r299953596-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -788,9 +818,6 @@
 The rooms are aging.  I think they tried to remodel parts of the rooms, but the popcorn ceilings, aging carpet,  grout and stains in the tubs and rusty handles leave a less the favorable impression.  The room we initially started with had a cracked sink mirror, unclean sink area, chipped tub and a broken window bar.  It left an unfavorable impression.  I tried calling the front desk but the phone also did not work.  I walked back up front and the front desk agent was very nice and apologetic.  He tried hard to make it right and upgraded us to a room with a Jacuzzi. I was happy...If you like Choice Hotel brand, this hotel is okay, but aging.  I would recommend another Choice property, the Cambria Suites at Legacy, if you can get the same prices the Cambia is newer and superior. Pros:Price - it was $20-$30 cheaper than most hotels in the area (Frisco/Plano) on the night we were looking for.  If we had booked 1 day sooner, the Cambria at Legacy had the same price.Location IF you like Top Golf (its right across the street). The area is a bit mixed on the side of the hotel and congested.  On the other side of 121, the Studio Movie Grill just opened in July and of course Nebraska Furniture Mart is nearby.  Breakfast - Included with your stayIndoor Pool King Beds, Good pillowsCons:The rooms are aging.  I think they tried to remodel parts of the rooms, but the popcorn ceilings, aging carpet,  grout and stains in the tubs and rusty handles leave a less the favorable impression.  The room we initially started with had a cracked sink mirror, unclean sink area, chipped tub and a broken window bar.  It left an unfavorable impression.  I tried calling the front desk but the phone also did not work.  I walked back up front and the front desk agent was very nice and apologetic.  He tried hard to make it right and upgraded us to a room with a Jacuzzi. I was happy to see the room was cleaner and cooler and appreciated his efforts.  He was very pleasant and went out of his way to help change our experience.More</t>
   </si>
   <si>
-    <t>BAC1981</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r296088867-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -809,9 +836,6 @@
     <t>June 2015</t>
   </si>
   <si>
-    <t>GoHeeterGo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r279407412-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -833,7 +857,88 @@
     <t>Check-in was easy. The room was clean and the bed was comfortable. They have plenty of plug ins to charge all of your gadgets! This hotel is just across the street from Top Golf, which was very convenient for us, since that was one of the main points of our trip. You can just walk over to Top Golf and not have to worry about trying to find parking over there. The hotel offers a free breakfast. I'm unable to comment on that, since we did not get to try it. The only reason I give this hotel a 4 instead of a 5 is for the noise. I'm not sure if the walls are too thin, or we had unusually noisy neighbors. I'm normally a pretty deep sleeper and I woke up twice during the night, hearing neighbors talking on either side of us.More</t>
   </si>
   <si>
-    <t>Tammygawry</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r278189477-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>278189477</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>April 25, 2015</t>
+  </si>
+  <si>
+    <t>Such an AMAZING experience!!!  I can't even begin to tell you how truly friendly,  professional and caring that this entire staff is!  And trust me, I put them to the test with some of my quirky needs and wants!  No matter who we were dealing with during our week long stay, every person was knowledgeable and courteous and truly caring.  We were supposed to only be at this hotel for 2 days because we were going to be in different areas of the metroplex so we were scheduled to move around.  However, after our 2nd night, I simply did not want to leave!  We rearranged our plans and criss-crossed around town to be able to stay here.  The room was very spacious and the beds were beyond comfy with lots of pillows! They were beautiful and clean and the perfect temperature. The hot-tub and pool remained clean and beautiful.  The full breakfast was excellent (and on that Saturday, that hostess stayed busy keeping up with the influx of athletes powering up for their day! But she did it!).  The maid service was excellent as well. If you navigation on your smart phone, you can find ANY cuisine within a few miles. And lots of places within the 2 block radius. Everything from fine dining to clubs and bars. And lots of shopping nearby too for those forgotten items as well as full on Girl Shopping!  And yes, we left with...Such an AMAZING experience!!!  I can't even begin to tell you how truly friendly,  professional and caring that this entire staff is!  And trust me, I put them to the test with some of my quirky needs and wants!  No matter who we were dealing with during our week long stay, every person was knowledgeable and courteous and truly caring.  We were supposed to only be at this hotel for 2 days because we were going to be in different areas of the metroplex so we were scheduled to move around.  However, after our 2nd night, I simply did not want to leave!  We rearranged our plans and criss-crossed around town to be able to stay here.  The room was very spacious and the beds were beyond comfy with lots of pillows! They were beautiful and clean and the perfect temperature. The hot-tub and pool remained clean and beautiful.  The full breakfast was excellent (and on that Saturday, that hostess stayed busy keeping up with the influx of athletes powering up for their day! But she did it!).  The maid service was excellent as well. If you navigation on your smart phone, you can find ANY cuisine within a few miles. And lots of places within the 2 block radius. Everything from fine dining to clubs and bars. And lots of shopping nearby too for those forgotten items as well as full on Girl Shopping!  And yes, we left with more than we arrived with! We are planning to see our daughter and new grandbaby again in July and have already booked our reservations for this same location.  Why not?  You can't beat excellence, right? RobinMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Such an AMAZING experience!!!  I can't even begin to tell you how truly friendly,  professional and caring that this entire staff is!  And trust me, I put them to the test with some of my quirky needs and wants!  No matter who we were dealing with during our week long stay, every person was knowledgeable and courteous and truly caring.  We were supposed to only be at this hotel for 2 days because we were going to be in different areas of the metroplex so we were scheduled to move around.  However, after our 2nd night, I simply did not want to leave!  We rearranged our plans and criss-crossed around town to be able to stay here.  The room was very spacious and the beds were beyond comfy with lots of pillows! They were beautiful and clean and the perfect temperature. The hot-tub and pool remained clean and beautiful.  The full breakfast was excellent (and on that Saturday, that hostess stayed busy keeping up with the influx of athletes powering up for their day! But she did it!).  The maid service was excellent as well. If you navigation on your smart phone, you can find ANY cuisine within a few miles. And lots of places within the 2 block radius. Everything from fine dining to clubs and bars. And lots of shopping nearby too for those forgotten items as well as full on Girl Shopping!  And yes, we left with...Such an AMAZING experience!!!  I can't even begin to tell you how truly friendly,  professional and caring that this entire staff is!  And trust me, I put them to the test with some of my quirky needs and wants!  No matter who we were dealing with during our week long stay, every person was knowledgeable and courteous and truly caring.  We were supposed to only be at this hotel for 2 days because we were going to be in different areas of the metroplex so we were scheduled to move around.  However, after our 2nd night, I simply did not want to leave!  We rearranged our plans and criss-crossed around town to be able to stay here.  The room was very spacious and the beds were beyond comfy with lots of pillows! They were beautiful and clean and the perfect temperature. The hot-tub and pool remained clean and beautiful.  The full breakfast was excellent (and on that Saturday, that hostess stayed busy keeping up with the influx of athletes powering up for their day! But she did it!).  The maid service was excellent as well. If you navigation on your smart phone, you can find ANY cuisine within a few miles. And lots of places within the 2 block radius. Everything from fine dining to clubs and bars. And lots of shopping nearby too for those forgotten items as well as full on Girl Shopping!  And yes, we left with more than we arrived with! We are planning to see our daughter and new grandbaby again in July and have already booked our reservations for this same location.  Why not?  You can't beat excellence, right? RobinMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r277725709-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>277725709</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Clean Rooms</t>
+  </si>
+  <si>
+    <t>This hotel is always clean. It does show signs of age, and probably is in need of attention to bring its looks into shape. On our last visit, the sheer curtains looked like  they had been touched by someone with food on their hands. The phone book was a 2008 edition, and the loose leaf binder was missing half its pages, including the TV channel guide.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r274858558-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>274858558</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Comfortable room, bed. Decent breakfast</t>
+  </si>
+  <si>
+    <t>Stayed here three nights during family visit on way home from wintering in Arizona. Great location, comfortable bed, etc., breakfast just right. Would stay there again without hesitation. If you're into golf, this motel is very close to Top Golf fun area. In fact it's just across the street.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r274117602-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>274117602</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>Solid experience, but location makes return visit unlikely.</t>
+  </si>
+  <si>
+    <t>Was visiting friends who were living nearby, so the location was good.  But otherwise, it's in the middle of nowhere unless you specifically have business nearby.As a place to stay, the place was great.  Very clean, spacious suite, plentiful free breakfast, daily newspapers, strong wifi, great service, etc.  My travelmate had medical equipment to bring in, so the luggage trolleys to bring stuff in from the car was great to have available.  I haven't really noticed them available at most motels, but then I'm not usually looking for them.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r260227752-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>260227752</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Vic: nice host!</t>
+  </si>
+  <si>
+    <t>Checked in Saturday after 3 PM. Rooms not ready. Had to wait about 30 minutes. Vic, the front desk clerk was very apologetic. Had to move my parents out of their room as someone had heavily sprayed or broke a bottle of perfume in it. Could not get it aired out. My mom has asthma so could not let her stay in it for 2 nights. Vic upgraded them to another better room which was great!Sunday we went out to look around Dallas. Came back about 5 PM and our room not even touched by housekeeping staff. But my parents room at least cleaned thank goodness. Again Vic was apologetic. Not sure what was up with that.Nice enough place. Vic was a great guy!  Parking lot decent size.  I might stay again if back in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Checked in Saturday after 3 PM. Rooms not ready. Had to wait about 30 minutes. Vic, the front desk clerk was very apologetic. Had to move my parents out of their room as someone had heavily sprayed or broke a bottle of perfume in it. Could not get it aired out. My mom has asthma so could not let her stay in it for 2 nights. Vic upgraded them to another better room which was great!Sunday we went out to look around Dallas. Came back about 5 PM and our room not even touched by housekeeping staff. But my parents room at least cleaned thank goodness. Again Vic was apologetic. Not sure what was up with that.Nice enough place. Vic was a great guy!  Parking lot decent size.  I might stay again if back in that area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r258323338-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -851,9 +956,6 @@
     <t xml:space="preserve">Room 216 is just above the lobby. I am writing this review at 1am. I haven't slept due to people allowed to visit loudly in the lobby all night. I've tried to adjust the thermastat multiple times to keep a fan running to dull the noise. </t>
   </si>
   <si>
-    <t>Ann M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r253733734-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -872,9 +974,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t>honestrealreviews</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r220984705-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -893,9 +992,6 @@
     <t>August 2014</t>
   </si>
   <si>
-    <t>Haris S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r213315814-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -917,9 +1013,6 @@
     <t>I stayed at this hotel for 6 nights recently in a twin double bed suite. I must say I was in for a pleasant surprise. Its a fantastic place to stay. Right from the lobby till the room, its very clean and tidy. Everything is properly placed. Maintenance is excellent. Room was is excellent condition. IT included a coffee maker, fridge n microwave. Seems like its recently renovated. The guy at the reception, Robert, was an extremely helpful and polite gentleman who also gave us complimentary gift bags which included water bottles, cheese snack n mix nuts. complementary breakfast was excellent, housekeeping was excellent, pool n spa were excellent. Ideal location. Thank you everyone at the hotel. I will definitely stay here the next time im in Dallas. Thumbs Up!!!More</t>
   </si>
   <si>
-    <t>Mickey2go</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r205983345-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -939,9 +1032,6 @@
   </si>
   <si>
     <t>This hotel recently had a fire. I stayed on the 3rd floor and half the hall was taped off with plastic. Customer service was okay but the property has been neglected. The stone gardens outside have weeds growing all through them and there are stains all over the hallway carpet. The shower curtain was dirty and I didn't even want to touch it. The wifi was weak in my room which was super disappointing. They have a small snack shop but there was no water and no diet drinks. I don't think it will stay here again. I prefer the other Comfort Suites in the area. This hotel was a little hard to find. It is beside the big golf range.More</t>
-  </si>
-  <si>
-    <t>AmandaRadFromDetroit</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r200765243-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -973,9 +1063,6 @@
 The pool is a decent size! The only thing I disliked is that it is a salty pool (but clean!) and it is VERY warm. I prefer a cold pool but for those of you who like...I review EVERYTHING good and bad from hotels, to fast food, to nail salons to regular retail stores. I am known for reviewing everything, especially with how often I travel. So you can trust my opinion as I review this hotel.This hotel was amazing. The room was absolutely beautiful and comfortable. We had a room with a huge king bed and a pull out sofa bed. The bathroom was so big it could fit a wheel chair inside, which was awesome. We got a steal on this room because we used hotels.com. They offer HOT breakfast every morning, which we took full advantage of. Bacon and eggs, bagels, Texas shaped (delicious) waffles and cereal with cold juices and water. Stay during the week and this place is dead which is awesome. The staff is AMAZING. Everyone at the front desk was so nice and more than willing to bring us more items such as pillows, blankets and pool towels. The lady who worked the breakfast area was so extremely kind she greeted us every morning, making sure we enjoyed the food and told us to have a great rest of our day. She was adorable and I can't get over her kindness. The pool is a decent size! The only thing I disliked is that it is a salty pool (but clean!) and it is VERY warm. I prefer a cold pool but for those of you who like a nice warm pool this place is for you. Regardless, I enjoyed swimming in it. The hotel is located right next to many places such as Roma's Pizza (delish!) Walmart, IHOP, Staples, and more. Lots of stuff to do, and it is a nice away from the traffic location. If I return, I will stay here again hands down!More</t>
   </si>
   <si>
-    <t>HappyMissourian</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r194395151-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -994,9 +1081,6 @@
     <t>February 2014</t>
   </si>
   <si>
-    <t>onlymeinArkansas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r192478223-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1024,9 +1108,6 @@
     <t>This was our second stay at this hotel which we chose because of it's close proximity to where we were working, and will also be our last. The staff are not friendly and usually the front desk is unmanned and you have to wait for someone to come around. Now I did make some allowance for the fact that they had suffered a fire, but the doors remained damaged due to firemen gaining entrance to them. The management describe them as scratches. On both occasions I felt ill in the mornings and I would suggest a air quality test be carried out. The internet access is slow and tv channels limited. I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
-    <t>DJDAMD</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r183217686-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1045,9 +1126,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>ProfNielsen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r181193163-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1063,7 +1141,106 @@
     <t>The check in was efficient and quick.  The room is nice -- clean and looks like new carpet.  Quiet area.  Good exercise room.  Best part it was much less than other motels in the Dallas area.  Great deal and a nice place to stay.</t>
   </si>
   <si>
-    <t>billy b</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r177113749-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>177113749</t>
+  </si>
+  <si>
+    <t>09/14/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>The hotel gives you what you expect, a clean room and a good stay. Bed was comfortable and furnishings were well maintained and clean. Room smelled a bit musty but cleared up when the air ran. All in all the stay was enjoyable and I feel refreshed and ready to start the day.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r174136790-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>174136790</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Solid option</t>
+  </si>
+  <si>
+    <t>I wasn't planning to stay at this hotel, but I made a mistake with my reservations somewhere else and was suddenly hotel-less with all my usual options fully booked. This hotel came as a nice surprise. I checked in around midnight with no hassle. The hotel looks a little old, but they do a good work with maintenance. Rooms are very big and even have a small TV viewing area. Breakfast was as expected with an above average service. Parking is free. Location is close to the highway, so it's easily accessible.Overall a good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>comfortsuitesthecolo, Webmaster at Comfort Suites the Colony - Plano West, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>I wasn't planning to stay at this hotel, but I made a mistake with my reservations somewhere else and was suddenly hotel-less with all my usual options fully booked. This hotel came as a nice surprise. I checked in around midnight with no hassle. The hotel looks a little old, but they do a good work with maintenance. Rooms are very big and even have a small TV viewing area. Breakfast was as expected with an above average service. Parking is free. Location is close to the highway, so it's easily accessible.Overall a good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r173808141-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>173808141</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Upkeep was the only negative</t>
+  </si>
+  <si>
+    <t>This hotel is nice and in an excellent location. There is literally EVERYTHING you could need all around you, even within walking distance. The staff was nice, especially the lady in charge of breakfast (which was better than some places we've been lately). The only thing I kept noticing was that the maintenance done on damage to the hotel was poorly done. This drew attention to any and every flaw. Other than that, this place provided an excellent nights stay. Oh yeah, the shower heads are pretty weak but the water was hot &amp; got the job done. I just prefer a firmer stream...MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>This hotel is nice and in an excellent location. There is literally EVERYTHING you could need all around you, even within walking distance. The staff was nice, especially the lady in charge of breakfast (which was better than some places we've been lately). The only thing I kept noticing was that the maintenance done on damage to the hotel was poorly done. This drew attention to any and every flaw. Other than that, this place provided an excellent nights stay. Oh yeah, the shower heads are pretty weak but the water was hot &amp; got the job done. I just prefer a firmer stream...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r164589416-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>164589416</t>
+  </si>
+  <si>
+    <t>06/20/2013</t>
+  </si>
+  <si>
+    <t>Fit or needs</t>
+  </si>
+  <si>
+    <t>We had a good stay.  Motel was clean, front desk staff very friendly and quick check-in. Smoke free environment, and there was not any residual smoke odor.  For the prices of the motels in the area, this was the best deal, basically 40% les than comparable motels close to the Frisco Roughriders Dr. Pepper Park.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r160713116-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>160713116</t>
+  </si>
+  <si>
+    <t>05/14/2013</t>
+  </si>
+  <si>
+    <t>Great hotel, excellent location</t>
+  </si>
+  <si>
+    <t>Stayed here on a shopping trip with the wife and the hotel is in an excellent location.  Was able to shop in Allen, drive a few miles here on the tollway that wasn't that busy, even during rush hour, sleep in a good room, and drive 2 miles to Ikea in the morning.  Breakfast was good, even if the waffles were Texas shaped.  The only real complaint I had was the lighting in the parking lot area shined right into our window, but I was able to get the curtains situated in a way that blocked almost all of it.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r154205241-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -1081,9 +1258,6 @@
     <t>we went to this hotel for two reasons,,,, they advertise an indoor heated pool which was reason one.  the second was too sleep.  the pool was not heated.  we asked the front desk they called the owner to see if they could turn it up, which they did.  but it takes awhile to heat a pool.  the next morning we tried again, it was cold again.  asked the front desk.  this time she had no key to the heater room.  she called the owner after I complained again and let them know the only reason we was there was to let the kids swim.  they gave a $15 dollar discount on our $109 room.  the breakfast was pretty decent though.  the room was your average $40 motel six room.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>comfortsuitesthecolo, Webmaster at Comfort Suites the Colony - Plano West, responded to this reviewResponded April 26, 2013</t>
   </si>
   <si>
@@ -1093,9 +1267,6 @@
     <t>we went to this hotel for two reasons,,,, they advertise an indoor heated pool which was reason one.  the second was too sleep.  the pool was not heated.  we asked the front desk they called the owner to see if they could turn it up, which they did.  but it takes awhile to heat a pool.  the next morning we tried again, it was cold again.  asked the front desk.  this time she had no key to the heater room.  she called the owner after I complained again and let them know the only reason we was there was to let the kids swim.  they gave a $15 dollar discount on our $109 room.  the breakfast was pretty decent though.  the room was your average $40 motel six room.More</t>
   </si>
   <si>
-    <t>Kajode_50</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r151277117-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1117,9 +1288,6 @@
     <t>Hotel was dark, run-down, depressing. We paid $150 for a 1-bedroom king suite, $50 more than the Residence Inn just up the road which was WAY nicer.  The shower was broken.  We ended up moving to a smaller room the next morning, which seemed to be in better shape.  Breakfast was a real disappointment, powdered eggs and greasy undercooked bacon.  Coffee was mediocre.  My advice: stay somewhere else.More</t>
   </si>
   <si>
-    <t>tmshafer</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r150145335-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1159,9 +1327,6 @@
     <t>Just wanted to get away so we stayed here Friday 12/14 to Sunday 12/16. Upon arrival the hotel was nice on the outside, once we entered the entrance was clean and welcoming. POSITIVE: The front desk staff as well as the dinning staff were very nice. Hotel accepts pets for pet lovers who travel with their pets. There is a Walmart shopping center across the light as well as Target shopping center across the freeway. The room includes mini fridge and microwave. There was adequate amount of towels for our 2 night stay.NEGATIVE: DO NOT stay in room 317 as it is right next to the elevator and you can hear the elevator each time. Our door was VERY hard to close. The a/c did not get cool.The shower made an awful sound that made us rush our shower. Bed was not that comfortable.The microwave also made a horrible sound so I just ate my left overs cold. LAST, as a responsible pet owner we pick up our dogs waste and the hotel grounds were full of dog waste of all sizes. The staff was amazing and I only gave the 4 stars because of the negative reasons.More</t>
   </si>
   <si>
-    <t>unibrein</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r140471598-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1180,9 +1345,6 @@
     <t>USA, please change your standards, carpets are not okay I really wonder if it makes the air clean! It is giving me serious breathing problems.Furthermore the name of the hotel claims its near the mall, it just isn't, there are a lot more better options then this hotel.More</t>
   </si>
   <si>
-    <t>Lisasblessings</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r135788737-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1201,9 +1363,6 @@
     <t>June 2012</t>
   </si>
   <si>
-    <t>Beth M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r132537180-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1222,9 +1381,6 @@
     <t>From the moment Sharon checked us in till we left a couple of days later, this place was great.  The bed was comfy and the room was very spacious.  Everyone greeted us with a smile as we went in or out each day.  The hotel was very clean and well-kept at all times.  The breakfast was better than most we've had, though it was lacking a bit in variety for me.  I never seemed to hit a time when bananas were available and I would have liked cinnamon rolls rather than the jelly-centered danishes.  But for the most part, everything was to our liking and we were more than satisfied.  We will definitely stay there when we return to the area in a few weeks.  Thanks Sharon and the rest of the staff!More</t>
   </si>
   <si>
-    <t>CarrieD6</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r129665442-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1246,9 +1402,6 @@
     <t>We stayed at this hotel for 3 nights.  Overall it was very nice.  It was very clean!  The pool was nice.  I didn't visit the gym area, but it resembled most other hotel gyms; i.e. treadmill, elliptical, some weights.  The hotel features a hot breakfast that is included for the price.  The breakfast was very good!  Our room was nice.  It was clean, has a very nice sitting area, mini fridge, coffee maker, and microwave.  the bed was comfortable and we had plenty of pillows. We did have an issue with the toilet not flushing correctly.  The hotel staff was unable to fix it, so they opened up the adjoining room for us to use, in addition to our original room.  I appreciated not having to move all of our stuff!  And we enjoyed the whirlpool tub that was in the new room.  Unfortunately, the smoke alarm in the new room started beeping, from a low battery, in the middle of the night during our last night.  I slept through it, but it did wake up my husband.  Overall we enjoyed the hotel.  The staff was very friendly, helpful, and accommodating.  I think we just experienced some bad luck.  I wouldn't let this prevent us from using this hotel again though.  I would recommend this hotel to others.  I think this hotel would be good for business, pleasure, and family travel.More</t>
   </si>
   <si>
-    <t>RobertL</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r120251336-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1267,9 +1420,6 @@
     <t>April 2011</t>
   </si>
   <si>
-    <t>STM0041</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r119121647-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1291,7 +1441,108 @@
     <t>So many hotel choices in Dallas area.  I was attending some sporting events in the area and my son recommended this hotel to me as it was clse to his home.  For $60 including tax, this hotel provided an adequate room with a king sized bed that was comfortable.  Plenty of towels and a 32" flat screen TV.  Breakfast included scrambled eggs, sausage, biscuits, gravy, cereal, juice, bagels, pastries, waffles, etc.  Best I ever had?  no.  Reasonable breakfast?  of course.  Room was impeccably clean, check in process was quick, parking was free, room was quiet.  I wouldn't hesitate to stay here again.  Room included a refridgerator and microwave.  Coffee available 24/7 in lobby.More</t>
   </si>
   <si>
-    <t>bekrann48</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r118757819-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>118757819</t>
+  </si>
+  <si>
+    <t>09/29/2011</t>
+  </si>
+  <si>
+    <t>Excellent, Clean and above and beyond staff."</t>
+  </si>
+  <si>
+    <t>This hotel is a great find.  My family and I enjoyed our "staycation".  From check in to check out is was a great get away; made better by the wonderful and friendly staff! A special bravo to the housekeeping staff...amazing and they even smile while they clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r114920912-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>114920912</t>
+  </si>
+  <si>
+    <t>06/30/2011</t>
+  </si>
+  <si>
+    <t>Embarrased, will not be back</t>
+  </si>
+  <si>
+    <t>I have a company hotel card  and I had to call this place four different times on different days to finally make reservations, drove over two hundred miles and when I was  checked in by Kyle he asked me several times for a credit card.
+When I told him it was a company card which he already had in his hand, he told me that he needed a personal credit card or cash deposit for any damages I might cause like smoking in the room. I told him  (I dont smoke) that's why I asked for a nonsmoking room.
+His answered with  I get told that all the time and people still smoke in the rooms,  and he added I have people tell me all the time they booked for a cheaper price online and when I check they hadent,   As if that confirmed something for him. But for me it was only telling me I was there to smoke in  thier rooms and lie to him about. then he told me he would have to text his boss to approve my stay with out a deposit, I said that was not menthioned when I made reservations, I waited twenty seven minutes
+for him to GET THE O K.. I will be in this area for four more day,s but only tonight will I sleep here.   
+The chemicals in the indoor pool is so strong they have permeated the whole...I have a company hotel card  and I had to call this place four different times on different days to finally make reservations, drove over two hundred miles and when I was  checked in by Kyle he asked me several times for a credit card.When I told him it was a company card which he already had in his hand, he told me that he needed a personal credit card or cash deposit for any damages I might cause like smoking in the room. I told him  (I dont smoke) that's why I asked for a nonsmoking room.His answered with  I get told that all the time and people still smoke in the rooms,  and he added I have people tell me all the time they booked for a cheaper price online and when I check they hadent,   As if that confirmed something for him. But for me it was only telling me I was there to smoke in  thier rooms and lie to him about. then he told me he would have to text his boss to approve my stay with out a deposit, I said that was not menthioned when I made reservations, I waited twenty seven minutesfor him to GET THE O K.. I will be in this area for four more day,s but only tonight will I sleep here.   The chemicals in the indoor pool is so strong they have permeated the whole hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>ManagementTX465, General Manager at Comfort Suites the Colony - Plano West, responded to this reviewResponded May 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2012</t>
+  </si>
+  <si>
+    <t>I have a company hotel card  and I had to call this place four different times on different days to finally make reservations, drove over two hundred miles and when I was  checked in by Kyle he asked me several times for a credit card.
+When I told him it was a company card which he already had in his hand, he told me that he needed a personal credit card or cash deposit for any damages I might cause like smoking in the room. I told him  (I dont smoke) that's why I asked for a nonsmoking room.
+His answered with  I get told that all the time and people still smoke in the rooms,  and he added I have people tell me all the time they booked for a cheaper price online and when I check they hadent,   As if that confirmed something for him. But for me it was only telling me I was there to smoke in  thier rooms and lie to him about. then he told me he would have to text his boss to approve my stay with out a deposit, I said that was not menthioned when I made reservations, I waited twenty seven minutes
+for him to GET THE O K.. I will be in this area for four more day,s but only tonight will I sleep here.   
+The chemicals in the indoor pool is so strong they have permeated the whole...I have a company hotel card  and I had to call this place four different times on different days to finally make reservations, drove over two hundred miles and when I was  checked in by Kyle he asked me several times for a credit card.When I told him it was a company card which he already had in his hand, he told me that he needed a personal credit card or cash deposit for any damages I might cause like smoking in the room. I told him  (I dont smoke) that's why I asked for a nonsmoking room.His answered with  I get told that all the time and people still smoke in the rooms,  and he added I have people tell me all the time they booked for a cheaper price online and when I check they hadent,   As if that confirmed something for him. But for me it was only telling me I was there to smoke in  thier rooms and lie to him about. then he told me he would have to text his boss to approve my stay with out a deposit, I said that was not menthioned when I made reservations, I waited twenty seven minutesfor him to GET THE O K.. I will be in this area for four more day,s but only tonight will I sleep here.   The chemicals in the indoor pool is so strong they have permeated the whole hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r87884964-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>87884964</t>
+  </si>
+  <si>
+    <t>11/22/2010</t>
+  </si>
+  <si>
+    <t>If you're easy to please, you'll be pleased</t>
+  </si>
+  <si>
+    <t>We had an event in the area and hadn't planned on an overnight stay.  When we decided last minute to stay over, this hotel was chosen because of its convenient location for our event.  It was clean enough, but certainly not spotless.  The staff was very gracious and helpful.  The bed was uncomfortable but the pillows were great; linens were adequate but nothing more; TV worked but was small and had limited channels; wifi was good and free.  Breakfast area was crowded, hot, and not particularly well stocked.  Don't expect to sleep on the sofa-bed; ours was worn and the pull out parts hadn't been cleaned in quite some time.  If you need to be in the area, this hotel will suffice.  But don't go out of your way to get here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2010</t>
+  </si>
+  <si>
+    <t>We had an event in the area and hadn't planned on an overnight stay.  When we decided last minute to stay over, this hotel was chosen because of its convenient location for our event.  It was clean enough, but certainly not spotless.  The staff was very gracious and helpful.  The bed was uncomfortable but the pillows were great; linens were adequate but nothing more; TV worked but was small and had limited channels; wifi was good and free.  Breakfast area was crowded, hot, and not particularly well stocked.  Don't expect to sleep on the sofa-bed; ours was worn and the pull out parts hadn't been cleaned in quite some time.  If you need to be in the area, this hotel will suffice.  But don't go out of your way to get here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r30536888-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>30536888</t>
+  </si>
+  <si>
+    <t>05/22/2009</t>
+  </si>
+  <si>
+    <t>It is a great Hotel</t>
+  </si>
+  <si>
+    <t>The Hotel has been recently renovated, furniture is in excellent condition, Breakfast is very good quality, staff is very helpfullAfter reading the previous reviews, I think that the hotel has made huge improvment</t>
+  </si>
+  <si>
+    <t>April 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r18692190-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
+  </si>
+  <si>
+    <t>18692190</t>
+  </si>
+  <si>
+    <t>08/06/2008</t>
+  </si>
+  <si>
+    <t>The property appeared to be well maintained and in good condition.  The TV (a little old) was not hooked up properly when we arrived, but were able to get it working after some effort.  Bed was a little hard for my taste, but was OK.   Hot breakfast was limited to hard boiled eggs and bacon.  Decided on to go to the fast food (Chick-fil A) in the area instead.  Overall nice property that could use a few minor upgrades.</t>
+  </si>
+  <si>
+    <t>August 2008</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r10219775-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -1312,9 +1563,6 @@
     <t>August 2007</t>
   </si>
   <si>
-    <t>tulsasoftballtravelr</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r6349808-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1333,9 +1581,6 @@
     <t>We reserved a room for a week. Over a month before we were to stay there we had to cancel. My wife called to cancel and Joann was not available to take the call so the ladt on the phone said she could do it. She gave my wife a cancellation number and that was that. Not true. We received our credit card bill and there was a charge for one nights stay. My wife called and talked to Joann regarding this issue. From the first word out of my wifes mouth Joann was rude to her and informed my wife that she did not have time to deal with this issued and we shoul;d dispute it with the credit card compny. That is the great attitude they seem to have at this hotel. We will charge you and if you dont like it dispute it we are not going to help you no matter what.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r4996320-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1357,9 +1602,6 @@
     <t>Hotel room was not the cleaniest.  Window unit was noisy.  Beds do not have fitted sheets they work their way off as you sleep.  Toilet would not flush.  Nice size room with half wall that had sofa/coffee table desk etc.  Some of the furniture was well worn.  Was told the hotel was 6 years old and had been recently remodeled.  Rooms did have microwave, coffee pot, and refrigerator. Over $100 for Thurs. stay.Continental breakfast was a joke.  There was cereal, prepackaged muffins, bagels and waffles.  The waffle mix hadn't been stirred well enough before it was put in the dispenser and had lumps of flour all in it.  They weren't edible.  The microwave must have been 20 years old.  Apple juice dispenser didn't have apple juice in it, I think it must have been water.More</t>
   </si>
   <si>
-    <t>solgirlDallas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r4417739-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
   </si>
   <si>
@@ -1391,9 +1633,6 @@
   </si>
   <si>
     <t>Checked in to discover that they don't honor prepaid online reservations.  Had made a reservation through comfort Inn online for non-smoking king suite.  They didn't have one available on arrival so gave us the only thing left...smoking, double bed.  Bed didn't have sheets on it.  Bathroom filthy, air conditioner did not work nor did the elevator.  We left and checked in to another hotel.  Will never stay at a Comfort Inn again.More</t>
-  </si>
-  <si>
-    <t>LMDanley</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56763-d106246-r2973763-Comfort_Suites_the_Colony_Plano_West-The_Colony_Texas.html</t>
@@ -1931,250 +2170,230 @@
       <c r="A2" t="n">
         <v>38134</v>
       </c>
-      <c r="B2" t="n">
-        <v>47947</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>4</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38134</v>
       </c>
-      <c r="B3" t="n">
-        <v>125757</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>59</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
         <v>60</v>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38134</v>
       </c>
-      <c r="B4" t="n">
-        <v>125758</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38134</v>
       </c>
-      <c r="B5" t="n">
-        <v>125759</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>69</v>
-      </c>
       <c r="O5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2182,64 +2401,60 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38134</v>
       </c>
-      <c r="B6" t="n">
-        <v>125760</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
         <v>78</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>79</v>
-      </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
         <v>3</v>
       </c>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -2247,300 +2462,294 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38134</v>
       </c>
-      <c r="B7" t="n">
-        <v>125761</v>
-      </c>
-      <c r="C7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>91</v>
-      </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38134</v>
       </c>
-      <c r="B8" t="n">
-        <v>125762</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38134</v>
       </c>
-      <c r="B9" t="n">
-        <v>125763</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>99</v>
+      </c>
+      <c r="X9" t="s">
+        <v>100</v>
+      </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38134</v>
       </c>
-      <c r="B10" t="n">
-        <v>125764</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s"/>
-      <c r="O10" t="s"/>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38134</v>
       </c>
-      <c r="B11" t="n">
-        <v>125765</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L11" t="s">
         <v>113</v>
       </c>
-      <c r="G11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>114</v>
-      </c>
-      <c r="J11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K11" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s">
-        <v>117</v>
-      </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2554,111 +2763,111 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38134</v>
       </c>
-      <c r="B12" t="n">
-        <v>125766</v>
-      </c>
-      <c r="C12" t="s">
-        <v>118</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>114</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
+        <v>118</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" t="s">
-        <v>120</v>
-      </c>
-      <c r="J12" t="s">
-        <v>121</v>
-      </c>
-      <c r="K12" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s"/>
-      <c r="O12" t="s"/>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38134</v>
       </c>
-      <c r="B13" t="n">
-        <v>125767</v>
-      </c>
-      <c r="C13" t="s">
-        <v>125</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2672,66 +2881,62 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38134</v>
       </c>
-      <c r="B14" t="n">
-        <v>125768</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="n">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="S14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2739,54 +2944,50 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38134</v>
       </c>
-      <c r="B15" t="n">
-        <v>125769</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2800,185 +3001,157 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38134</v>
       </c>
-      <c r="B16" t="n">
-        <v>125770</v>
-      </c>
-      <c r="C16" t="s">
-        <v>148</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
-      <c r="N16" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38134</v>
       </c>
-      <c r="B17" t="n">
-        <v>61095</v>
-      </c>
-      <c r="C17" t="s">
-        <v>154</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>3</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38134</v>
       </c>
-      <c r="B18" t="n">
-        <v>125771</v>
-      </c>
-      <c r="C18" t="s">
-        <v>161</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="s">
-        <v>167</v>
-      </c>
-      <c r="O18" t="s">
-        <v>132</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
@@ -2991,54 +3164,50 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38134</v>
       </c>
-      <c r="B19" t="n">
-        <v>125772</v>
-      </c>
-      <c r="C19" t="s">
-        <v>168</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="J19" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3052,66 +3221,62 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38134</v>
       </c>
-      <c r="B20" t="n">
-        <v>123920</v>
-      </c>
-      <c r="C20" t="s">
-        <v>177</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="J20" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="L20" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4</v>
-      </c>
-      <c r="R20" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -3119,186 +3284,174 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38134</v>
       </c>
-      <c r="B21" t="n">
-        <v>125773</v>
-      </c>
-      <c r="C21" t="s">
-        <v>183</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J21" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38134</v>
       </c>
-      <c r="B22" t="n">
-        <v>125774</v>
-      </c>
-      <c r="C22" t="s">
-        <v>190</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O22" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38134</v>
       </c>
-      <c r="B23" t="n">
-        <v>125775</v>
-      </c>
-      <c r="C23" t="s">
-        <v>196</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="J23" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="K23" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="O23" t="s">
-        <v>147</v>
-      </c>
-      <c r="P23" t="s"/>
+        <v>98</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -3310,259 +3463,237 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38134</v>
       </c>
-      <c r="B24" t="n">
-        <v>51908</v>
-      </c>
-      <c r="C24" t="s">
-        <v>203</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="K24" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="L24" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38134</v>
       </c>
-      <c r="B25" t="n">
-        <v>22799</v>
-      </c>
-      <c r="C25" t="s">
-        <v>211</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="K25" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38134</v>
       </c>
-      <c r="B26" t="n">
-        <v>125776</v>
-      </c>
-      <c r="C26" t="s">
-        <v>217</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="J26" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="O26" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38134</v>
       </c>
-      <c r="B27" t="n">
-        <v>125777</v>
-      </c>
-      <c r="C27" t="s">
-        <v>224</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="J27" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="n">
-        <v>4</v>
-      </c>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3570,123 +3701,109 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38134</v>
       </c>
-      <c r="B28" t="n">
-        <v>125778</v>
-      </c>
-      <c r="C28" t="s">
-        <v>231</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>230</v>
+        <v>194</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38134</v>
       </c>
-      <c r="B29" t="n">
-        <v>18614</v>
-      </c>
-      <c r="C29" t="s">
-        <v>238</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>218</v>
       </c>
       <c r="O29" t="s">
-        <v>147</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="n">
         <v>3</v>
@@ -3694,7 +3811,7 @@
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3702,63 +3819,59 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38134</v>
       </c>
-      <c r="B30" t="n">
-        <v>125779</v>
-      </c>
-      <c r="C30" t="s">
-        <v>246</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="J30" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="O30" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
         <v>3</v>
       </c>
-      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>4</v>
@@ -3769,60 +3882,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38134</v>
       </c>
-      <c r="B31" t="n">
-        <v>125780</v>
-      </c>
-      <c r="C31" t="s">
-        <v>253</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="O31" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
@@ -3836,194 +3943,180 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38134</v>
       </c>
-      <c r="B32" t="n">
-        <v>125781</v>
-      </c>
-      <c r="C32" t="s">
-        <v>261</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="J32" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="K32" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="L32" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>2</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>236</v>
+      </c>
+      <c r="O32" t="s">
+        <v>195</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38134</v>
       </c>
-      <c r="B33" t="n">
-        <v>63022</v>
-      </c>
-      <c r="C33" t="s">
-        <v>267</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="J33" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="K33" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="L33" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="M33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="O33" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
       <c r="R33" t="s"/>
-      <c r="S33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38134</v>
       </c>
-      <c r="B34" t="n">
-        <v>78997</v>
-      </c>
-      <c r="C34" t="s">
-        <v>274</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
       </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4031,70 +4124,62 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38134</v>
       </c>
-      <c r="B35" t="n">
-        <v>125782</v>
-      </c>
-      <c r="C35" t="s">
-        <v>281</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>282</v>
+        <v>249</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>5</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -4102,122 +4187,116 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38134</v>
       </c>
-      <c r="B36" t="n">
-        <v>125783</v>
-      </c>
-      <c r="C36" t="s">
-        <v>289</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="J36" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="O36" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38134</v>
       </c>
-      <c r="B37" t="n">
-        <v>125784</v>
-      </c>
-      <c r="C37" t="s">
-        <v>297</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>299</v>
+        <v>263</v>
       </c>
       <c r="J37" t="s">
-        <v>300</v>
+        <v>264</v>
       </c>
       <c r="K37" t="s">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="L37" t="s">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="O37" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>5</v>
       </c>
@@ -4234,196 +4313,184 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38134</v>
       </c>
-      <c r="B38" t="n">
-        <v>125785</v>
-      </c>
-      <c r="C38" t="s">
-        <v>305</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="J38" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="K38" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="L38" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="O38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38134</v>
       </c>
-      <c r="B39" t="n">
-        <v>125753</v>
-      </c>
-      <c r="C39" t="s">
-        <v>312</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>318</v>
+        <v>267</v>
       </c>
       <c r="O39" t="s">
-        <v>132</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
       <c r="Q39" t="s"/>
       <c r="R39" t="s"/>
       <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>319</v>
-      </c>
-      <c r="X39" t="s">
-        <v>320</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38134</v>
       </c>
-      <c r="B40" t="n">
-        <v>125786</v>
-      </c>
-      <c r="C40" t="s">
-        <v>322</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="O40" t="s">
-        <v>147</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4431,63 +4498,55 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38134</v>
       </c>
-      <c r="B41" t="n">
-        <v>125787</v>
-      </c>
-      <c r="C41" t="s">
-        <v>329</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>330</v>
+        <v>286</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="J41" t="s">
-        <v>332</v>
+        <v>288</v>
       </c>
       <c r="K41" t="s">
-        <v>333</v>
+        <v>289</v>
       </c>
       <c r="L41" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>328</v>
+        <v>267</v>
       </c>
       <c r="O41" t="s">
-        <v>132</v>
-      </c>
-      <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4502,288 +4561,232 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38134</v>
       </c>
-      <c r="B42" t="n">
-        <v>125788</v>
-      </c>
-      <c r="C42" t="s">
-        <v>335</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="J42" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="K42" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="L42" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="s">
-        <v>341</v>
-      </c>
-      <c r="O42" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>3</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>342</v>
-      </c>
-      <c r="X42" t="s">
-        <v>343</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38134</v>
       </c>
-      <c r="B43" t="n">
-        <v>125789</v>
-      </c>
-      <c r="C43" t="s">
-        <v>345</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
-      </c>
-      <c r="N43" t="s">
-        <v>351</v>
-      </c>
-      <c r="O43" t="s">
-        <v>54</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
       <c r="P43" t="n">
         <v>1</v>
       </c>
       <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
         <v>2</v>
       </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>342</v>
-      </c>
-      <c r="X43" t="s">
-        <v>343</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>352</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38134</v>
       </c>
-      <c r="B44" t="n">
-        <v>125790</v>
-      </c>
-      <c r="C44" t="s">
-        <v>353</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="J44" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="K44" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>306</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
-      <c r="N44" t="s"/>
-      <c r="O44" t="s"/>
-      <c r="P44" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+      <c r="N44" t="s">
+        <v>307</v>
+      </c>
+      <c r="O44" t="s">
+        <v>195</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
-      <c r="U44" t="n">
-        <v>2</v>
-      </c>
+      <c r="U44" t="s"/>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>342</v>
-      </c>
-      <c r="X44" t="s">
-        <v>343</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38134</v>
       </c>
-      <c r="B45" t="n">
-        <v>51908</v>
-      </c>
-      <c r="C45" t="s">
-        <v>203</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="J45" t="s">
-        <v>362</v>
+        <v>310</v>
       </c>
       <c r="K45" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="L45" t="s">
-        <v>364</v>
+        <v>312</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>365</v>
+        <v>313</v>
       </c>
       <c r="O45" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>4</v>
       </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
         <v>5</v>
@@ -4791,203 +4794,177 @@
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>342</v>
-      </c>
-      <c r="X45" t="s">
-        <v>343</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38134</v>
       </c>
-      <c r="B46" t="n">
-        <v>125791</v>
-      </c>
-      <c r="C46" t="s">
-        <v>367</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="J46" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="K46" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="L46" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>319</v>
+      </c>
+      <c r="O46" t="s">
+        <v>98</v>
+      </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>342</v>
-      </c>
-      <c r="X46" t="s">
-        <v>343</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38134</v>
       </c>
-      <c r="B47" t="n">
-        <v>125792</v>
-      </c>
-      <c r="C47" t="s">
-        <v>374</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>321</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="J47" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="K47" t="s">
-        <v>378</v>
+        <v>324</v>
       </c>
       <c r="L47" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="O47" t="s">
-        <v>54</v>
-      </c>
-      <c r="P47" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>3</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>379</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38134</v>
       </c>
-      <c r="B48" t="n">
-        <v>8416</v>
-      </c>
-      <c r="C48" t="s">
-        <v>381</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="J48" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>380</v>
+        <v>333</v>
       </c>
       <c r="O48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5011,208 +4988,180 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38134</v>
       </c>
-      <c r="B49" t="n">
-        <v>125793</v>
-      </c>
-      <c r="C49" t="s">
-        <v>388</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>389</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>390</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s">
-        <v>392</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s">
-        <v>393</v>
+        <v>339</v>
       </c>
       <c r="M49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>394</v>
+        <v>340</v>
       </c>
       <c r="O49" t="s">
-        <v>132</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>5</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38134</v>
       </c>
-      <c r="B50" t="n">
-        <v>38866</v>
-      </c>
-      <c r="C50" t="s">
-        <v>396</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="J50" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="K50" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="L50" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="O50" t="s">
-        <v>54</v>
-      </c>
-      <c r="P50" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s"/>
-      <c r="X50" t="s"/>
+      <c r="W50" t="s">
+        <v>347</v>
+      </c>
+      <c r="X50" t="s">
+        <v>348</v>
+      </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38134</v>
       </c>
-      <c r="B51" t="n">
-        <v>125794</v>
-      </c>
-      <c r="C51" t="s">
-        <v>403</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>350</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>351</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>353</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>354</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="P51" t="n">
         <v>4</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -5224,54 +5173,50 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38134</v>
       </c>
-      <c r="B52" t="n">
-        <v>125795</v>
-      </c>
-      <c r="C52" t="s">
-        <v>411</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="J52" t="s">
-        <v>414</v>
+        <v>358</v>
       </c>
       <c r="K52" t="s">
-        <v>415</v>
+        <v>359</v>
       </c>
       <c r="L52" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>417</v>
+        <v>355</v>
       </c>
       <c r="O52" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5295,328 +5240,328 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>416</v>
+        <v>360</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38134</v>
       </c>
-      <c r="B53" t="n">
-        <v>125796</v>
-      </c>
-      <c r="C53" t="s">
-        <v>418</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
       <c r="G53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="J53" t="s">
-        <v>421</v>
+        <v>363</v>
       </c>
       <c r="K53" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="L53" t="s">
-        <v>423</v>
+        <v>365</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
-      <c r="P53" t="s"/>
-      <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>366</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
       <c r="T53" t="s"/>
-      <c r="U53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>342</v>
-      </c>
-      <c r="X53" t="s">
-        <v>343</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>365</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>38134</v>
       </c>
-      <c r="B54" t="n">
-        <v>7</v>
-      </c>
-      <c r="C54" t="s">
-        <v>425</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>426</v>
+        <v>367</v>
       </c>
       <c r="G54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>427</v>
+        <v>368</v>
       </c>
       <c r="J54" t="s">
-        <v>428</v>
+        <v>369</v>
       </c>
       <c r="K54" t="s">
-        <v>429</v>
+        <v>370</v>
       </c>
       <c r="L54" t="s">
-        <v>430</v>
+        <v>371</v>
       </c>
       <c r="M54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>431</v>
+        <v>372</v>
       </c>
       <c r="O54" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="P54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2</v>
-      </c>
-      <c r="R54" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="X54" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="Y54" t="s">
-        <v>432</v>
+        <v>375</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>38134</v>
       </c>
-      <c r="B55" t="n">
-        <v>125797</v>
-      </c>
-      <c r="C55" t="s">
-        <v>433</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>434</v>
+        <v>376</v>
       </c>
       <c r="G55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>435</v>
+        <v>377</v>
       </c>
       <c r="J55" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="K55" t="s">
-        <v>437</v>
+        <v>379</v>
       </c>
       <c r="L55" t="s">
-        <v>438</v>
+        <v>380</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
-      <c r="N55" t="s"/>
-      <c r="O55" t="s"/>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+      <c r="N55" t="s">
+        <v>381</v>
+      </c>
+      <c r="O55" t="s">
+        <v>171</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
       <c r="R55" t="s"/>
-      <c r="S55" t="n">
-        <v>4</v>
-      </c>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>373</v>
+      </c>
+      <c r="X55" t="s">
+        <v>374</v>
+      </c>
       <c r="Y55" t="s">
-        <v>438</v>
+        <v>382</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>38134</v>
       </c>
-      <c r="B56" t="n">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>425</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>439</v>
+        <v>383</v>
       </c>
       <c r="G56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>440</v>
+        <v>384</v>
       </c>
       <c r="J56" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="K56" t="s">
-        <v>442</v>
+        <v>386</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>388</v>
+      </c>
+      <c r="O56" t="s">
+        <v>171</v>
+      </c>
       <c r="P56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>342</v>
-      </c>
-      <c r="X56" t="s">
-        <v>343</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>444</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>38134</v>
       </c>
-      <c r="B57" t="n">
-        <v>125798</v>
-      </c>
-      <c r="C57" t="s">
-        <v>445</v>
-      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="G57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="J57" t="s">
-        <v>448</v>
+        <v>391</v>
       </c>
       <c r="K57" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
       <c r="M57" t="n">
-        <v>5</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>394</v>
+      </c>
+      <c r="O57" t="s">
+        <v>171</v>
+      </c>
       <c r="P57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q57" t="n">
         <v>5</v>
       </c>
-      <c r="R57" t="s"/>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
       <c r="S57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
@@ -5628,68 +5573,1455 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>450</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>38134</v>
       </c>
-      <c r="B58" t="n">
-        <v>7</v>
-      </c>
-      <c r="C58" t="s">
-        <v>425</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>395</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>396</v>
+      </c>
+      <c r="J58" t="s">
+        <v>397</v>
+      </c>
+      <c r="K58" t="s">
+        <v>398</v>
+      </c>
+      <c r="L58" t="s">
+        <v>399</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>394</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>400</v>
+      </c>
+      <c r="X58" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>403</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>404</v>
+      </c>
+      <c r="J59" t="s">
+        <v>405</v>
+      </c>
+      <c r="K59" t="s">
+        <v>406</v>
+      </c>
+      <c r="L59" t="s">
+        <v>407</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>408</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>400</v>
+      </c>
+      <c r="X59" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>410</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>411</v>
+      </c>
+      <c r="J60" t="s">
+        <v>412</v>
+      </c>
+      <c r="K60" t="s">
+        <v>413</v>
+      </c>
+      <c r="L60" t="s">
+        <v>414</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>400</v>
+      </c>
+      <c r="X60" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>416</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>417</v>
+      </c>
+      <c r="J61" t="s">
+        <v>418</v>
+      </c>
+      <c r="K61" t="s">
+        <v>419</v>
+      </c>
+      <c r="L61" t="s">
+        <v>420</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>421</v>
+      </c>
+      <c r="O61" t="s">
+        <v>171</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>400</v>
+      </c>
+      <c r="X61" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>423</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>424</v>
+      </c>
+      <c r="J62" t="s">
+        <v>425</v>
+      </c>
+      <c r="K62" t="s">
+        <v>426</v>
+      </c>
+      <c r="L62" t="s">
+        <v>427</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>400</v>
+      </c>
+      <c r="X62" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>429</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>430</v>
+      </c>
+      <c r="J63" t="s">
+        <v>431</v>
+      </c>
+      <c r="K63" t="s">
+        <v>432</v>
+      </c>
+      <c r="L63" t="s">
+        <v>433</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>434</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>435</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>436</v>
+      </c>
+      <c r="J64" t="s">
+        <v>437</v>
+      </c>
+      <c r="K64" t="s">
+        <v>438</v>
+      </c>
+      <c r="L64" t="s">
+        <v>439</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>434</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>441</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>442</v>
+      </c>
+      <c r="J65" t="s">
+        <v>443</v>
+      </c>
+      <c r="K65" t="s">
+        <v>444</v>
+      </c>
+      <c r="L65" t="s">
+        <v>445</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>446</v>
+      </c>
+      <c r="O65" t="s">
+        <v>98</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>448</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>449</v>
+      </c>
+      <c r="J66" t="s">
+        <v>450</v>
+      </c>
+      <c r="K66" t="s">
         <v>451</v>
       </c>
-      <c r="G58" t="s">
-        <v>47</v>
-      </c>
-      <c r="H58" t="s">
-        <v>48</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="L66" t="s">
         <v>452</v>
       </c>
-      <c r="J58" t="s">
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
         <v>453</v>
       </c>
-      <c r="K58" t="s">
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
         <v>454</v>
       </c>
-      <c r="L58" t="s">
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
         <v>455</v>
       </c>
-      <c r="M58" t="n">
+      <c r="J67" t="s">
+        <v>456</v>
+      </c>
+      <c r="K67" t="s">
+        <v>457</v>
+      </c>
+      <c r="L67" t="s">
+        <v>458</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>459</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>461</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>462</v>
+      </c>
+      <c r="J68" t="s">
+        <v>463</v>
+      </c>
+      <c r="K68" t="s">
+        <v>464</v>
+      </c>
+      <c r="L68" t="s">
+        <v>465</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>466</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>467</v>
+      </c>
+      <c r="J69" t="s">
+        <v>468</v>
+      </c>
+      <c r="K69" t="s">
+        <v>469</v>
+      </c>
+      <c r="L69" t="s">
+        <v>470</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>471</v>
+      </c>
+      <c r="O69" t="s">
+        <v>98</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
         <v>1</v>
       </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
-      <c r="P58" t="s"/>
-      <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
-      <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
-      <c r="V58" t="n">
-        <v>0</v>
-      </c>
-      <c r="W58" t="s">
-        <v>342</v>
-      </c>
-      <c r="X58" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>456</v>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>472</v>
+      </c>
+      <c r="X69" t="s">
+        <v>473</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>475</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>476</v>
+      </c>
+      <c r="J70" t="s">
+        <v>477</v>
+      </c>
+      <c r="K70" t="s">
+        <v>478</v>
+      </c>
+      <c r="L70" t="s">
+        <v>479</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s">
+        <v>171</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>482</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>483</v>
+      </c>
+      <c r="J71" t="s">
+        <v>484</v>
+      </c>
+      <c r="K71" t="s">
+        <v>485</v>
+      </c>
+      <c r="L71" t="s">
+        <v>486</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>487</v>
+      </c>
+      <c r="O71" t="s">
+        <v>171</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>488</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>489</v>
+      </c>
+      <c r="J72" t="s">
+        <v>490</v>
+      </c>
+      <c r="K72" t="s">
+        <v>311</v>
+      </c>
+      <c r="L72" t="s">
+        <v>491</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>492</v>
+      </c>
+      <c r="O72" t="s">
+        <v>67</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>493</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>494</v>
+      </c>
+      <c r="J73" t="s">
+        <v>495</v>
+      </c>
+      <c r="K73" t="s">
+        <v>496</v>
+      </c>
+      <c r="L73" t="s">
+        <v>497</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>498</v>
+      </c>
+      <c r="O73" t="s">
+        <v>171</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>499</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>500</v>
+      </c>
+      <c r="J74" t="s">
+        <v>501</v>
+      </c>
+      <c r="K74" t="s">
+        <v>502</v>
+      </c>
+      <c r="L74" t="s">
+        <v>503</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="s"/>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="s"/>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>400</v>
+      </c>
+      <c r="X74" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>505</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>506</v>
+      </c>
+      <c r="J75" t="s">
+        <v>507</v>
+      </c>
+      <c r="K75" t="s">
+        <v>508</v>
+      </c>
+      <c r="L75" t="s">
+        <v>509</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>510</v>
+      </c>
+      <c r="O75" t="s">
+        <v>98</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>2</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>400</v>
+      </c>
+      <c r="X75" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>512</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>513</v>
+      </c>
+      <c r="J76" t="s">
+        <v>514</v>
+      </c>
+      <c r="K76" t="s">
+        <v>515</v>
+      </c>
+      <c r="L76" t="s">
+        <v>516</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="s"/>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>517</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>518</v>
+      </c>
+      <c r="J77" t="s">
+        <v>519</v>
+      </c>
+      <c r="K77" t="s">
+        <v>520</v>
+      </c>
+      <c r="L77" t="s">
+        <v>521</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>400</v>
+      </c>
+      <c r="X77" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>523</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>524</v>
+      </c>
+      <c r="J78" t="s">
+        <v>525</v>
+      </c>
+      <c r="K78" t="s">
+        <v>526</v>
+      </c>
+      <c r="L78" t="s">
+        <v>527</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="s"/>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38134</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>528</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>529</v>
+      </c>
+      <c r="J79" t="s">
+        <v>530</v>
+      </c>
+      <c r="K79" t="s">
+        <v>531</v>
+      </c>
+      <c r="L79" t="s">
+        <v>532</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s"/>
+      <c r="O79" t="s"/>
+      <c r="P79" t="s"/>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="s"/>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>400</v>
+      </c>
+      <c r="X79" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
